--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,330 +477,330 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+5521976118999</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+553899270013</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5521995764707</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+5515998011590</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5517996224837</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+5521993666597</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+556186346464</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5517982182078</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5521994487873</t>
+          <t>+553598384326</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+553387162985</t>
+          <t>+5511949039321</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+553189950107</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+556192821849</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -810,61 +810,65 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+5511954735353</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+553181112014</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr"/>
+          <t>+553193414787</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -874,99 +878,99 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+553197154454</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+5514981742179</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5519997169971</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -976,14 +980,14 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -993,31 +997,31 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+5511952445156</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1027,269 +1031,269 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+553496475327</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+5521992929823</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+5527981325234</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5511986351380</t>
+          <t>+5517991073503</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+5521976786452</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -1299,235 +1303,235 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+553172410975</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+553183156928</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511999295981</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5521995764707</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5521982569965</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5517996224837</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5511974894870</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -1537,337 +1541,333 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+556186346464</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5517982182078</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5521994487873</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+553387162985</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5511952309623</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5521975271927</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5511985874949</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+555581224664</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -1877,82 +1877,82 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+553599576731</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+553496475327</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -1962,14 +1962,14 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+553899036538</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -1979,99 +1979,99 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5511982436841</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -2081,167 +2081,167 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5521995465901</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5511916026029</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5521990020839</t>
+          <t>+5511986351380</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+556182774626</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -2251,31 +2251,31 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5511999295981</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -2285,48 +2285,48 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5514988274045</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5521974254318</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -2336,99 +2336,99 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+559784493536</t>
+          <t>+5521982569965</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+559884992626</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5521997718822</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5521969783130</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5511918696260</t>
+          <t>+5511974894870</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -2438,48 +2438,48 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+556194055890</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
@@ -2489,14 +2489,14 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -2506,235 +2506,235 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+553173532267</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5521985188561</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+555599619921</t>
+          <t>+5511952309623</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+556281654128</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5521975271927</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5511985874949</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5511965989780</t>
+          <t>+555581224664</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5511972407648</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+556193150767</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -2744,116 +2744,116 @@
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+553186762194</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+553391170544</t>
+          <t>+553599576731</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+553172158664</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511976989664</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -2863,320 +2863,320 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+553193152228</t>
+          <t>+553899036538</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+553188011763</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5521997767333</t>
+          <t>+5511982436841</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5517981586055</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5511969007717</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+553196753573</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5521995465901</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5518997241288</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+553184314426</t>
+          <t>+5521990020839</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+553591229032</t>
+          <t>+556182774626</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+556191736964</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+555194132543</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5511919562851</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5522992189813</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5519995949209</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5511949493898</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -3186,218 +3186,218 @@
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5521992641055</t>
+          <t>+5514988274045</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5511913734713</t>
+          <t>+5521974254318</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+555193266115</t>
+          <t>+559784493536</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+559884992626</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5518981732632</t>
+          <t>+5521997718822</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5521969783130</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5521970723610</t>
+          <t>+5511918696260</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5521987902545</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5521974152837</t>
+          <t>+556194055890</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5513991353556</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -3407,133 +3407,133 @@
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5524998450146</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5511939046785</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5524992559960</t>
+          <t>+553173532267</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5511972688272</t>
+          <t>+5521985188561</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5511982009842</t>
+          <t>+555599619921</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+556281654128</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+555180467658</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5511991003715</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -3543,218 +3543,218 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+556296921188</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5521997724220</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5521968889357</t>
+          <t>+5511965989780</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5511972407648</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+556193150767</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5521966232493</t>
+          <t>+553186762194</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+553391170544</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5521982546232</t>
+          <t>+553172158664</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+5511976989664</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5511948298838</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
@@ -3764,99 +3764,99 @@
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+555496714844</t>
+          <t>+553193152228</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+553188011763</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+5521997767333</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5511967179670</t>
+          <t>+5517981586055</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5511986395990</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+5511969007717</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -3866,167 +3866,167 @@
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+553196753573</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+553171763009</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5517997291539</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+5518997241288</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+553184314426</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5511932555565</t>
+          <t>+553591229032</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+5511991002950</t>
+          <t>+556191736964</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5515992591963</t>
+          <t>+555194132543</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+5511919562851</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5511977444431</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -4036,105 +4036,1023 @@
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+5522992189813</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5519995949209</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr"/>
+          <t>+5511949493898</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5521992641055</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
+          <t>+5511913734713</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>+555193266115</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>+5511975239143</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>+5518981732632</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>+5511988728016</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>+5511937521372</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>+5521970723610</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>+5521987902545</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>+5521974152837</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>+5513991353556</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>+5521971675879</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>+5524998450146</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>+5511939046785</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>+5524992559960</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>+5511972688272</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>+5511982009842</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="inlineStr">
+        <is>
+          <t>+553189770327</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>+555180467658</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr">
+        <is>
+          <t>+5511991003715</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>+556296921188</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>+5521997724220</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>+5521968889357</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr">
+        <is>
+          <t>+5521973034869</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>+5522988681272</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>+5511940799019</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>+556295423845</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>+5521966232493</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>+553491564119</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr">
+        <is>
+          <t>+553898991517</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C245" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>+5521982546232</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="inlineStr">
+        <is>
+          <t>+5515998598533</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C247" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>+5511948298838</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t>+555496714844</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>+555191089346</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="inlineStr">
+        <is>
+          <t>+5511947769013</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>+5511967179670</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="inlineStr">
+        <is>
+          <t>+5511986395990</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C253" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>+5511953499879</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>+5521997432262</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>+553171763009</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="inlineStr">
+        <is>
+          <t>+5517997291539</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C257" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr">
+        <is>
+          <t>+5511957562684</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="inlineStr">
+        <is>
+          <t>+5524999327754</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C259" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>+5511932555565</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="inlineStr">
+        <is>
+          <t>+5511991002950</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C261" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>+5515992591963</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="inlineStr">
+        <is>
+          <t>+558699687586</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>+5511977444431</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="inlineStr">
+        <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="inlineStr"/>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
           <t>+5521965197022</t>
         </is>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
         <is>
           <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="inlineStr">
+        <is>
+          <t>+556199367888</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
         </is>
       </c>
     </row>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,126 +477,126 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5521976118999</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+555180517281</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+553899270013</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5515998011590</t>
+          <t>+555181645327</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -606,116 +606,116 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5521993666597</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+5521982933998</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+553598384326</t>
+          <t>+556191926665</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5511949039321</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -725,99 +725,99 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+553189950107</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+557991355652</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+556192821849</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511954735353</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -827,235 +827,235 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+553181112014</t>
+          <t>+5521976118999</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+553193414787</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+5515998011590</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5514981742179</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5519997169971</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5511952445156</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -1065,138 +1065,138 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+556192821849</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5511954735353</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+553193414787</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5521992929823</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5527981325234</t>
+          <t>+553197154454</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5514981742179</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1208,12 +1208,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1242,12 +1242,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5517991073503</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1259,12 +1259,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5521976786452</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1327,12 +1327,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+553172410975</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1344,12 +1344,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+553183156928</t>
+          <t>+5521992929823</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+5527981325234</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1395,12 +1395,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5521995764707</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1412,12 +1412,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1446,12 +1446,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -1463,7 +1463,7 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5517996224837</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1497,41 +1497,41 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -1541,82 +1541,82 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+556186346464</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5517982182078</t>
+          <t>+5521995764707</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5521994487873</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+553387162985</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -1626,53 +1626,53 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+5517996224837</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1701,12 +1701,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1718,12 +1718,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+556186346464</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1735,10 +1735,14 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr"/>
+          <t>+5521994487873</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
           <t>2024-10-03</t>
@@ -1748,12 +1752,12 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+553387162985</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -1765,165 +1769,161 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+553496475327</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -1952,12 +1952,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -1969,12 +1969,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+553496475327</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5511916026029</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2139,12 +2139,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5511986351380</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2156,126 +2156,126 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5511999295981</t>
+          <t>+5511916026029</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
@@ -2285,14 +2285,14 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5511986351380</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -2302,14 +2302,14 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5521982569965</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5511974894870</t>
+          <t>+5511999295981</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -2445,12 +2445,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -2496,7 +2496,7 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5521982569965</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -2513,12 +2513,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -2530,58 +2530,58 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5511952309623</t>
+          <t>+5511974894870</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -2591,14 +2591,14 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -2608,14 +2608,14 @@
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -2625,303 +2625,303 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5521975271927</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5511985874949</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+555581224664</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5511952309623</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5521975271927</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+553599576731</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+5511985874949</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+555581224664</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+553899036538</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5511982436841</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -2931,65 +2931,65 @@
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+553599576731</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5521995465901</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
@@ -2999,150 +2999,150 @@
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+553899036538</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5521990020839</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+556182774626</t>
+          <t>+5511982436841</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+5521995465901</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -3152,48 +3152,48 @@
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5521990020839</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -3203,133 +3203,133 @@
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5514988274045</t>
+          <t>+556182774626</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5521974254318</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+559784493536</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+559884992626</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5521997718822</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5521969783130</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5511918696260</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
@@ -3339,133 +3339,133 @@
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+556194055890</t>
+          <t>+5514988274045</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5521974254318</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+559784493536</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+559884992626</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-22</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+5521997718822</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+553173532267</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5521985188561</t>
+          <t>+5521969783130</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -3475,65 +3475,65 @@
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+555599619921</t>
+          <t>+5511918696260</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+556281654128</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+556194055890</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -3543,14 +3543,14 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5521990024205</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
@@ -3560,36 +3560,36 @@
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5511965989780</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
@@ -3601,12 +3601,12 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+553173532267</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
@@ -3618,12 +3618,12 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5511972407648</t>
+          <t>+5521985188561</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -3635,109 +3635,109 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+556193150767</t>
+          <t>+555599619921</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+556281654128</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+553186762194</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+553391170544</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+553172158664</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5511976989664</t>
+          <t>+5511965989780</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -3747,53 +3747,53 @@
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+553193152228</t>
+          <t>+5511972407648</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+553188011763</t>
+          <t>+556193150767</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -3805,12 +3805,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5521997767333</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5517981586055</t>
+          <t>+553186762194</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
@@ -3839,41 +3839,41 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5511969007717</t>
+          <t>+553391170544</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+553196753573</t>
+          <t>+553172158664</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
@@ -3883,65 +3883,65 @@
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5511976989664</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5518997241288</t>
+          <t>+553193152228</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+553184314426</t>
+          <t>+553188011763</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -3951,48 +3951,48 @@
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+553591229032</t>
+          <t>+5521997767333</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+556191736964</t>
+          <t>+5517981586055</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+555194132543</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
@@ -4009,7 +4009,7 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5511919562851</t>
+          <t>+5511969007717</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
@@ -4026,12 +4026,12 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+553196753573</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
@@ -4043,12 +4043,12 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5522992189813</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
@@ -4060,12 +4060,12 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5519995949209</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
@@ -4077,12 +4077,12 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5511949493898</t>
+          <t>+5518997241288</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
@@ -4094,12 +4094,12 @@
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+553184314426</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
@@ -4111,12 +4111,12 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5521992641055</t>
+          <t>+553591229032</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
@@ -4128,12 +4128,12 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5511913734713</t>
+          <t>+556191736964</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
@@ -4145,7 +4145,7 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+555193266115</t>
+          <t>+555194132543</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
@@ -4162,7 +4162,7 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+5511919562851</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
@@ -4179,12 +4179,12 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+5518981732632</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -4196,58 +4196,58 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5522992189813</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5519995949209</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5521970723610</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5521987902545</t>
+          <t>+5521992641055</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
@@ -4257,82 +4257,82 @@
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5521974152837</t>
+          <t>+5511913734713</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5513991353556</t>
+          <t>+555193266115</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5524998450146</t>
+          <t>+5518981732632</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5511939046785</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -4342,286 +4342,286 @@
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5524992559960</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5511972688272</t>
+          <t>+5521970723610</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5511982009842</t>
+          <t>+5521987902545</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5521974152837</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+555180467658</t>
+          <t>+5513991353556</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+5511991003715</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+556296921188</t>
+          <t>+5524998450146</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5521997724220</t>
+          <t>+5511939046785</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5521968889357</t>
+          <t>+5524992559960</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+5511972688272</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5511982009842</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+555180467658</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5521966232493</t>
+          <t>+5511991003715</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+556296921188</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+5521997724220</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5521982546232</t>
+          <t>+5521968889357</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
@@ -4631,53 +4631,53 @@
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5511948298838</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+555496714844</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
@@ -4689,12 +4689,12 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -4706,160 +4706,160 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+5521966232493</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5511967179670</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5511986395990</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+5521982546232</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5515998598533</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+553171763009</t>
+          <t>+5511948298838</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5517997291539</t>
+          <t>+555496714844</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+5511947769013</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5511932555565</t>
+          <t>+5511967179670</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
@@ -4869,14 +4869,14 @@
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5511991002950</t>
+          <t>+5511986395990</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
@@ -4886,112 +4886,116 @@
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5515992591963</t>
+          <t>+5511953499879</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5511977444431</t>
+          <t>+553171763009</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+5517997291539</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5511957562684</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B267" s="2" t="inlineStr"/>
+          <t>+5524999327754</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+5511932555565</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
@@ -5001,14 +5005,14 @@
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5511991002950</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
@@ -5018,39 +5022,171 @@
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+5515992591963</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
+          <t>+558699687586</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr">
+        <is>
+          <t>+5511977444431</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="inlineStr">
+        <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C273" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="inlineStr"/>
+      <c r="C275" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C277" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr">
+        <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="inlineStr">
+        <is>
           <t>+556199367888</t>
         </is>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B279" s="2" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C279" s="2" t="inlineStr">
         <is>
           <t>2024-06-13</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C279"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,46 +477,46 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+555180517281</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -528,12 +528,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -545,29 +545,29 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+555181645327</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -579,12 +579,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+555181645327</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -613,7 +613,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -647,12 +647,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -681,29 +681,29 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5521982933998</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+556191926665</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+557991355652</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -783,46 +783,46 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5521976118999</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5521976118999</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,46 +851,46 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+5515998011590</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -902,46 +902,46 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5515998011590</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -970,12 +970,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1021,7 +1021,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1038,12 +1038,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+5511954735353</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -1072,12 +1072,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+556192821849</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5511954735353</t>
+          <t>+553197154454</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+553193414787</t>
+          <t>+5514981742179</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1123,80 +1123,80 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5514981742179</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1208,12 +1208,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1242,12 +1242,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1259,12 +1259,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1327,12 +1327,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1344,12 +1344,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5521992929823</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5527981325234</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1395,12 +1395,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1412,12 +1412,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -1463,12 +1463,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1531,148 +1531,148 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5521995764707</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+5521994487873</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5517996224837</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1701,12 +1701,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1718,14 +1718,10 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+556186346464</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
           <t>2024-10-03</t>
@@ -1735,7 +1731,7 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5521994487873</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -1752,178 +1748,182 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+553387162985</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr"/>
+          <t>+5511949196983</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -1952,12 +1952,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -1969,12 +1969,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+553496475327</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+5511916026029</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,126 +2105,126 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -2234,31 +2234,31 @@
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -2268,31 +2268,31 @@
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5511916026029</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5511986351380</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -2302,19 +2302,19 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -2326,12 +2326,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+5511974894870</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5511999295981</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2445,364 +2445,364 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5521982569965</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5511974894870</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5511952309623</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5521975271927</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -2812,116 +2812,116 @@
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5511985874949</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+555581224664</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -2931,82 +2931,82 @@
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+553599576731</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+5521969783130</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+5511918696260</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -3016,48 +3016,48 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+553899036538</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5511982436841</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -3067,269 +3067,269 @@
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5521995465901</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5521990020839</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+556182774626</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+553591229032</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
@@ -3339,48 +3339,48 @@
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5514988274045</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5521974254318</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -3390,184 +3390,184 @@
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+559784493536</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+559884992626</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5521997718822</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5521969783130</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5511918696260</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+556194055890</t>
+          <t>+5515998598533</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5521990024205</t>
+          <t>+5511947769013</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+5511953499879</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -3577,1618 +3577,173 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+553173532267</t>
+          <t>+5511957562684</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5521985188561</t>
+          <t>+5524999327754</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+555599619921</t>
+          <t>+558699687586</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+556281654128</t>
+          <t>+556185975181</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+553291004823</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
-        </is>
-      </c>
-      <c r="B191" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr"/>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-08-19</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5511981274889</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-08-01</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5511967859426</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-07-28</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5511965989780</t>
+          <t>+5521965197022</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>+5527995084971</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="C195" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="inlineStr">
-        <is>
-          <t>+5511972407648</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C196" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="inlineStr">
-        <is>
-          <t>+556193150767</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C197" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>+5511960883659</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C198" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="inlineStr">
-        <is>
-          <t>+553186762194</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C199" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="inlineStr">
-        <is>
-          <t>+5515997311227</t>
-        </is>
-      </c>
-      <c r="B200" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C200" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="inlineStr">
-        <is>
-          <t>+553391170544</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>+553172158664</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="inlineStr">
-        <is>
-          <t>+5511976989664</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C203" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>+5511991898733</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>+553193152228</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>+553188011763</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>+5521997767333</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>+5517981586055</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>+555186932954</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>+5511969007717</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="inlineStr">
-        <is>
-          <t>+553196753573</t>
-        </is>
-      </c>
-      <c r="B211" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C211" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>+556295505222</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="inlineStr">
-        <is>
-          <t>+5515996802393</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="inlineStr">
-        <is>
-          <t>+5518997241288</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C214" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="inlineStr">
-        <is>
-          <t>+553184314426</t>
-        </is>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="inlineStr">
-        <is>
-          <t>+553591229032</t>
-        </is>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="inlineStr">
-        <is>
-          <t>+556191736964</t>
-        </is>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>+555194132543</t>
-        </is>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="inlineStr">
-        <is>
-          <t>+5511919562851</t>
-        </is>
-      </c>
-      <c r="B219" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C219" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="inlineStr">
-        <is>
-          <t>+5511953342142</t>
-        </is>
-      </c>
-      <c r="B220" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C220" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="inlineStr">
-        <is>
-          <t>+5522992189813</t>
-        </is>
-      </c>
-      <c r="B221" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C221" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="inlineStr">
-        <is>
-          <t>+5519995949209</t>
-        </is>
-      </c>
-      <c r="B222" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C222" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="inlineStr">
-        <is>
-          <t>+5519993458891</t>
-        </is>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="C223" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="inlineStr">
-        <is>
-          <t>+5521992641055</t>
-        </is>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="inlineStr">
-        <is>
-          <t>+5511913734713</t>
-        </is>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="inlineStr">
-        <is>
-          <t>+555193266115</t>
-        </is>
-      </c>
-      <c r="B226" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="C226" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="inlineStr">
-        <is>
-          <t>+5511975239143</t>
-        </is>
-      </c>
-      <c r="B227" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C227" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="inlineStr">
-        <is>
-          <t>+5518981732632</t>
-        </is>
-      </c>
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="C228" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="inlineStr">
-        <is>
-          <t>+5511988728016</t>
-        </is>
-      </c>
-      <c r="B229" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C229" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="inlineStr">
-        <is>
-          <t>+5511937521372</t>
-        </is>
-      </c>
-      <c r="B230" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C230" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="inlineStr">
-        <is>
-          <t>+5521970723610</t>
-        </is>
-      </c>
-      <c r="B231" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C231" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="inlineStr">
-        <is>
-          <t>+5521987902545</t>
-        </is>
-      </c>
-      <c r="B232" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C232" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="inlineStr">
-        <is>
-          <t>+5521974152837</t>
-        </is>
-      </c>
-      <c r="B233" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C233" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="inlineStr">
-        <is>
-          <t>+5513991353556</t>
-        </is>
-      </c>
-      <c r="B234" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C234" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="inlineStr">
-        <is>
-          <t>+5521971675879</t>
-        </is>
-      </c>
-      <c r="B235" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C235" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="inlineStr">
-        <is>
-          <t>+5524998450146</t>
-        </is>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="inlineStr">
-        <is>
-          <t>+5511939046785</t>
-        </is>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="inlineStr">
-        <is>
-          <t>+5524992559960</t>
-        </is>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="inlineStr">
-        <is>
-          <t>+5511972688272</t>
-        </is>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="inlineStr">
-        <is>
-          <t>+5511982009842</t>
-        </is>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="inlineStr">
-        <is>
-          <t>+553189770327</t>
-        </is>
-      </c>
-      <c r="B241" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C241" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="inlineStr">
-        <is>
-          <t>+555180467658</t>
-        </is>
-      </c>
-      <c r="B242" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="C242" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="2" t="inlineStr">
-        <is>
-          <t>+5511991003715</t>
-        </is>
-      </c>
-      <c r="B243" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C243" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="inlineStr">
-        <is>
-          <t>+556296921188</t>
-        </is>
-      </c>
-      <c r="B244" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="C244" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="inlineStr">
-        <is>
-          <t>+5521997724220</t>
-        </is>
-      </c>
-      <c r="B245" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C245" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="inlineStr">
-        <is>
-          <t>+5521968889357</t>
-        </is>
-      </c>
-      <c r="B246" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C246" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="inlineStr">
-        <is>
-          <t>+5521973034869</t>
-        </is>
-      </c>
-      <c r="B247" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C247" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="inlineStr">
-        <is>
-          <t>+5522988681272</t>
-        </is>
-      </c>
-      <c r="B248" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C248" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="2" t="inlineStr">
-        <is>
-          <t>+5511940799019</t>
-        </is>
-      </c>
-      <c r="B249" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C249" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="inlineStr">
-        <is>
-          <t>+556295423845</t>
-        </is>
-      </c>
-      <c r="B250" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="C250" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="2" t="inlineStr">
-        <is>
-          <t>+5521966232493</t>
-        </is>
-      </c>
-      <c r="B251" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C251" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="inlineStr">
-        <is>
-          <t>+553491564119</t>
-        </is>
-      </c>
-      <c r="B252" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="C252" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="2" t="inlineStr">
-        <is>
-          <t>+553898991517</t>
-        </is>
-      </c>
-      <c r="B253" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="C253" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="inlineStr">
-        <is>
-          <t>+5521982546232</t>
-        </is>
-      </c>
-      <c r="B254" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C254" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="inlineStr">
-        <is>
-          <t>+5515998598533</t>
-        </is>
-      </c>
-      <c r="B255" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C255" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="inlineStr">
-        <is>
-          <t>+5511948298838</t>
-        </is>
-      </c>
-      <c r="B256" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C256" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="inlineStr">
-        <is>
-          <t>+555496714844</t>
-        </is>
-      </c>
-      <c r="B257" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="C257" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="inlineStr">
-        <is>
-          <t>+555191089346</t>
-        </is>
-      </c>
-      <c r="B258" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="C258" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="inlineStr">
-        <is>
-          <t>+5511947769013</t>
-        </is>
-      </c>
-      <c r="B259" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C259" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="inlineStr">
-        <is>
-          <t>+5511967179670</t>
-        </is>
-      </c>
-      <c r="B260" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C260" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="inlineStr">
-        <is>
-          <t>+5511986395990</t>
-        </is>
-      </c>
-      <c r="B261" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C261" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="inlineStr">
-        <is>
-          <t>+5511953499879</t>
-        </is>
-      </c>
-      <c r="B262" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C262" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="inlineStr">
-        <is>
-          <t>+5521997432262</t>
-        </is>
-      </c>
-      <c r="B263" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C263" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="inlineStr">
-        <is>
-          <t>+553171763009</t>
-        </is>
-      </c>
-      <c r="B264" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="C264" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="inlineStr">
-        <is>
-          <t>+5517997291539</t>
-        </is>
-      </c>
-      <c r="B265" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C265" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="inlineStr">
-        <is>
-          <t>+5511957562684</t>
-        </is>
-      </c>
-      <c r="B266" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="inlineStr">
-        <is>
-          <t>+5524999327754</t>
-        </is>
-      </c>
-      <c r="B267" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C267" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="inlineStr">
-        <is>
-          <t>+5511932555565</t>
-        </is>
-      </c>
-      <c r="B268" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="inlineStr">
-        <is>
-          <t>+5511991002950</t>
-        </is>
-      </c>
-      <c r="B269" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C269" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="inlineStr">
-        <is>
-          <t>+5515992591963</t>
-        </is>
-      </c>
-      <c r="B270" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C270" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="inlineStr">
-        <is>
-          <t>+558699687586</t>
-        </is>
-      </c>
-      <c r="B271" s="2" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="C271" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="inlineStr">
-        <is>
-          <t>+5511977444431</t>
-        </is>
-      </c>
-      <c r="B272" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C272" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="inlineStr">
-        <is>
-          <t>+556185975181</t>
-        </is>
-      </c>
-      <c r="B273" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C273" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="inlineStr">
-        <is>
-          <t>+553291004823</t>
-        </is>
-      </c>
-      <c r="B274" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="C274" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="inlineStr">
-        <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B275" s="2" t="inlineStr"/>
-      <c r="C275" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="inlineStr">
-        <is>
-          <t>+5511981274889</t>
-        </is>
-      </c>
-      <c r="B276" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C276" s="2" t="inlineStr">
-        <is>
-          <t>2024-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="inlineStr">
-        <is>
-          <t>+5511967859426</t>
-        </is>
-      </c>
-      <c r="B277" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C277" s="2" t="inlineStr">
-        <is>
-          <t>2024-07-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="inlineStr">
-        <is>
-          <t>+5521965197022</t>
-        </is>
-      </c>
-      <c r="B278" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C278" s="2" t="inlineStr">
-        <is>
           <t>2024-07-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="inlineStr">
-        <is>
-          <t>+556199367888</t>
-        </is>
-      </c>
-      <c r="B279" s="2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C279" s="2" t="inlineStr">
-        <is>
-          <t>2024-06-13</t>
         </is>
       </c>
     </row>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,29 +477,29 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -511,29 +511,29 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -562,29 +562,29 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+555181645327</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+555181645327</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -613,12 +613,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -630,7 +630,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -647,12 +647,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -681,12 +681,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -698,29 +698,29 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -793,19 +793,19 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5521976118999</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+5521976118999</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,29 +851,29 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5515998011590</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -885,12 +885,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+5515998011590</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -902,29 +902,29 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -970,12 +970,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1021,7 +1021,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1038,12 +1038,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5511954735353</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1055,12 +1055,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+5511954735353</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1072,12 +1072,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5514981742179</t>
+          <t>+553197154454</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1123,29 +1123,29 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+5514981742179</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1191,12 +1191,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1208,12 +1208,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1242,12 +1242,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1259,12 +1259,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1327,7 +1327,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -1344,12 +1344,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1395,7 +1395,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
@@ -1412,12 +1412,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1446,12 +1446,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -1463,12 +1463,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1497,12 +1497,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1531,29 +1531,29 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -1582,12 +1582,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5521994487873</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1599,12 +1599,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5521994487873</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1616,12 +1616,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1633,12 +1633,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1650,12 +1650,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1667,12 +1667,12 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1701,12 +1701,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1718,10 +1718,14 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr"/>
+          <t>+555189187936</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
           <t>2024-10-03</t>
@@ -1731,14 +1735,10 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
           <t>2024-10-03</t>
@@ -1748,29 +1748,29 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -1782,12 +1782,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -1799,12 +1799,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -1816,12 +1816,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -1850,7 +1850,7 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -1867,7 +1867,7 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -1884,7 +1884,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -1952,12 +1952,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -1969,12 +1969,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511916026029</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,29 +2105,29 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+5511916026029</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2139,12 +2139,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -2173,12 +2173,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -2190,12 +2190,12 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -2207,12 +2207,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2224,12 +2224,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2241,12 +2241,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2275,12 +2275,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2309,7 +2309,7 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -2326,12 +2326,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5511974894870</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+5511974894870</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2445,29 +2445,29 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -2496,12 +2496,12 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -2513,29 +2513,29 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -2547,29 +2547,29 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -2598,29 +2598,29 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -2632,12 +2632,12 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -2649,12 +2649,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -2666,29 +2666,29 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -2700,29 +2700,29 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
@@ -2734,12 +2734,12 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
@@ -2751,7 +2751,7 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -2768,12 +2768,12 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -2785,12 +2785,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
@@ -2802,12 +2802,12 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
@@ -2819,29 +2819,29 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
@@ -2853,29 +2853,29 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
@@ -2887,12 +2887,12 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
@@ -2904,12 +2904,12 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -2938,12 +2938,12 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
@@ -2955,29 +2955,29 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5521969783130</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
@@ -2989,24 +2989,24 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5511918696260</t>
+          <t>+5521969783130</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5511918696260</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -3023,7 +3023,7 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -3050,14 +3050,14 @@
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -3074,29 +3074,29 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
@@ -3108,7 +3108,7 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -3125,12 +3125,12 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
@@ -3142,12 +3142,12 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -3159,12 +3159,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -3176,29 +3176,29 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
@@ -3210,12 +3210,12 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
@@ -3227,29 +3227,29 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
@@ -3261,12 +3261,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -3278,12 +3278,12 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+553591229032</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -3295,12 +3295,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+553591229032</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -3312,12 +3312,12 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
@@ -3346,7 +3346,7 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
@@ -3356,14 +3356,14 @@
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
@@ -3380,46 +3380,46 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
@@ -3448,29 +3448,29 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -3482,12 +3482,12 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
@@ -3499,12 +3499,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -3533,12 +3533,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+5515998598533</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -3550,24 +3550,24 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+5511947769013</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -3577,19 +3577,19 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5511953499879</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
@@ -3601,29 +3601,29 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+5511957562684</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -3635,12 +3635,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+5524999327754</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -3652,71 +3652,71 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+558699687586</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+556185975181</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B191" s="2" t="inlineStr"/>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr"/>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-19</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5511981274889</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
@@ -3726,22 +3726,39 @@
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-08-01</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
           <t>+5521965197022</t>
         </is>
       </c>
-      <c r="B194" s="2" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C194" s="2" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
         <is>
           <t>2024-07-21</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -494,29 +494,29 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -528,29 +528,29 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -579,29 +579,29 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+555181645327</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -810,19 +810,19 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5521976118999</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -3618,12 +3618,12 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -3635,12 +3635,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+5511957562684</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -3652,12 +3652,12 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+5524999327754</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -3669,71 +3669,71 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+558699687586</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+556185975181</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr"/>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr"/>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-19</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5511981274889</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -3743,22 +3743,39 @@
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-08-01</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
           <t>+5521965197022</t>
         </is>
       </c>
-      <c r="B195" s="2" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C195" s="2" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
         <is>
           <t>2024-07-21</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,29 +477,29 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5511967663538</t>
+          <t>+5521991729220</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -511,29 +511,29 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -545,29 +545,29 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -579,12 +579,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,29 +596,29 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -681,12 +681,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -715,29 +715,29 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -827,19 +827,19 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -868,29 +868,29 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5515998011590</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+5515998011590</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -919,29 +919,29 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -970,12 +970,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1021,7 +1021,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -1055,12 +1055,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5511954735353</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1072,12 +1072,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+5511954735353</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1123,12 +1123,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5514981742179</t>
+          <t>+553197154454</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1140,29 +1140,29 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+5514981742179</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -1191,12 +1191,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1208,12 +1208,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1242,12 +1242,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1259,12 +1259,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1327,12 +1327,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1395,12 +1395,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1412,7 +1412,7 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1446,12 +1446,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -1463,12 +1463,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1497,12 +1497,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1531,12 +1531,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1548,29 +1548,29 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -1582,12 +1582,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1599,12 +1599,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5521994487873</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1616,12 +1616,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5521994487873</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1633,12 +1633,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1650,12 +1650,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1667,12 +1667,12 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1701,12 +1701,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1718,12 +1718,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1735,10 +1735,14 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr"/>
+          <t>+555189187936</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
           <t>2024-10-03</t>
@@ -1748,14 +1752,10 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
           <t>2024-10-03</t>
@@ -1765,29 +1765,29 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -1799,12 +1799,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -1816,12 +1816,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -1850,12 +1850,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -1867,7 +1867,7 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -1884,7 +1884,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -1901,7 +1901,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -1952,12 +1952,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -1969,12 +1969,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2071,7 +2071,7 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5511916026029</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,29 +2122,29 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+5511916026029</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2156,12 +2156,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -2173,7 +2173,7 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -2190,12 +2190,12 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -2207,12 +2207,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2224,12 +2224,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2241,12 +2241,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2275,12 +2275,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2309,12 +2309,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5511974894870</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+5511974894870</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2445,12 +2445,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -2462,29 +2462,29 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -2496,12 +2496,12 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -2513,12 +2513,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -2530,29 +2530,29 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -2564,29 +2564,29 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -2598,12 +2598,12 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -2615,29 +2615,29 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -2649,12 +2649,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -2666,12 +2666,12 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -2683,29 +2683,29 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -2717,29 +2717,29 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
@@ -2751,12 +2751,12 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
@@ -2768,7 +2768,7 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -2785,12 +2785,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
@@ -2802,12 +2802,12 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
@@ -2836,29 +2836,29 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
@@ -2870,29 +2870,29 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
@@ -2904,12 +2904,12 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
@@ -2921,12 +2921,12 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -2938,7 +2938,7 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -2955,12 +2955,12 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -2972,29 +2972,29 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5521969783130</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
@@ -3006,24 +3006,24 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5511918696260</t>
+          <t>+5521969783130</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5511918696260</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -3057,7 +3057,7 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -3067,14 +3067,14 @@
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -3091,29 +3091,29 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
@@ -3125,7 +3125,7 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
@@ -3142,12 +3142,12 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -3159,12 +3159,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
@@ -3193,29 +3193,29 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
@@ -3227,12 +3227,12 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
@@ -3244,29 +3244,29 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -3278,12 +3278,12 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -3295,12 +3295,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+553591229032</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -3312,12 +3312,12 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+553591229032</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
@@ -3346,12 +3346,12 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
@@ -3363,7 +3363,7 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
@@ -3373,14 +3373,14 @@
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -3397,46 +3397,46 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
@@ -3448,12 +3448,12 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
@@ -3465,29 +3465,29 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
@@ -3499,12 +3499,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -3533,12 +3533,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -3550,12 +3550,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+5515998598533</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -3567,24 +3567,24 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+5511947769013</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -3594,19 +3594,19 @@
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5511953499879</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
@@ -3618,7 +3618,7 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -3628,19 +3628,19 @@
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -3652,12 +3652,12 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+5511957562684</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -3669,12 +3669,12 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+5524999327754</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
@@ -3686,71 +3686,71 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+558699687586</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+556185975181</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-08-30</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr"/>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr"/>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-08-19</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5511981274889</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
@@ -3760,22 +3760,39 @@
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-08-01</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
           <t>+5521965197022</t>
         </is>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>2024-07-21</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C197"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -528,29 +528,29 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+556182603325</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -562,29 +562,29 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -613,29 +613,29 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -647,12 +647,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -681,12 +681,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -732,29 +732,29 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -844,19 +844,19 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+556181190993</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -885,46 +885,46 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5515998011590</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -936,46 +936,46 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+5515998011590</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1021,12 +1021,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1038,12 +1038,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -1072,12 +1072,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5511954735353</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+5511954735353</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1123,12 +1123,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5514981742179</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -1157,46 +1157,46 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+553197154454</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+5514981742179</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1208,12 +1208,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1242,12 +1242,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1259,12 +1259,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1327,12 +1327,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1344,12 +1344,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1395,12 +1395,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1412,12 +1412,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1446,12 +1446,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -1463,7 +1463,7 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1497,12 +1497,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1531,12 +1531,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1548,12 +1548,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -1565,46 +1565,46 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1616,12 +1616,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5521994487873</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1633,7 +1633,7 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -1650,12 +1650,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+5521994487873</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1667,7 +1667,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1701,12 +1701,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1718,12 +1718,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1735,12 +1735,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -1752,10 +1752,14 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr"/>
+          <t>+557599264956</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
           <t>2024-10-03</t>
@@ -1765,12 +1769,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -1782,24 +1786,20 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -1809,19 +1809,19 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -1850,12 +1850,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -1867,12 +1867,12 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -1901,7 +1901,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -1952,7 +1952,7 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -1969,12 +1969,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,7 +2122,7 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5511916026029</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -2139,46 +2139,46 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+5511916026029</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -2190,12 +2190,12 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -2207,12 +2207,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2224,12 +2224,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2275,12 +2275,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2309,12 +2309,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -2326,12 +2326,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,7 +2377,7 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5511974894870</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5511974894870</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2445,7 +2445,7 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -2479,46 +2479,46 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -2547,80 +2547,80 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -2632,46 +2632,46 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -2683,12 +2683,12 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -2700,58 +2700,58 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -2761,19 +2761,19 @@
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -2785,12 +2785,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
@@ -2802,12 +2802,12 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
@@ -2836,12 +2836,12 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
@@ -2853,80 +2853,80 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -2938,12 +2938,12 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
@@ -2955,12 +2955,12 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -2972,12 +2972,12 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
@@ -2989,24 +2989,24 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5521969783130</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -3016,48 +3016,48 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5511918696260</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5521969783130</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511918696260</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -3074,7 +3074,7 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -3084,14 +3084,14 @@
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -3101,31 +3101,31 @@
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
@@ -3135,19 +3135,19 @@
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -3159,12 +3159,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
@@ -3193,12 +3193,12 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
@@ -3210,41 +3210,41 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
@@ -3261,46 +3261,46 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -3312,12 +3312,12 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+553591229032</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
@@ -3346,12 +3346,12 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+553591229032</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
@@ -3363,7 +3363,7 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
@@ -3380,24 +3380,24 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -3407,48 +3407,48 @@
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
@@ -3458,19 +3458,19 @@
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -3482,46 +3482,46 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -3533,12 +3533,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -3550,12 +3550,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
@@ -3584,215 +3584,300 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5515998598533</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+5511947769013</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+5511953499879</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr"/>
+          <t>+5511957562684</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+5524999327754</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+558699687586</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr"/>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
           <t>+5521965197022</t>
         </is>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
         <is>
           <t>2024-07-21</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,24 +477,24 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5521991729220</t>
+          <t>+5511995005483</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511967663538</t>
+          <t>+5511943271107</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -504,240 +504,240 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+553199028131</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+556182603325</t>
+          <t>+555184576071</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5521965979948</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+556186533564</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+5511950609656</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+556182603325</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -749,109 +749,109 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -861,223 +861,223 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+556181190993</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5515998011590</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+556181190993</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+5515998011590</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5511954735353</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1123,12 +1123,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -1157,12 +1157,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1174,12 +1174,12 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5514981742179</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1191,24 +1191,24 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+5511954735353</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -1218,87 +1218,87 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+553197154454</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5514981742179</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1327,7 +1327,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -1344,12 +1344,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1395,12 +1395,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1412,12 +1412,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1446,12 +1446,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -1463,12 +1463,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1497,12 +1497,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1514,7 +1514,7 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -1531,12 +1531,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1548,12 +1548,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -1582,12 +1582,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1599,75 +1599,75 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5521994487873</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -1677,36 +1677,36 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1718,12 +1718,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1735,12 +1735,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -1752,12 +1752,12 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+5521994487873</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -1769,12 +1769,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -1786,10 +1786,14 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr"/>
+          <t>+5512981058518</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
           <t>2024-10-03</t>
@@ -1799,12 +1803,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -1816,114 +1820,110 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -1952,12 +1952,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -1969,12 +1969,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,12 +2003,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2139,12 +2139,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2156,12 +2156,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5511916026029</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -2173,41 +2173,41 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -2217,14 +2217,14 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
@@ -2234,53 +2234,53 @@
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+5511916026029</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2309,12 +2309,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -2326,12 +2326,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -2377,12 +2377,12 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5511974894870</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2445,12 +2445,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -2462,7 +2462,7 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -2496,12 +2496,12 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -2513,75 +2513,75 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5511974894870</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -2591,201 +2591,201 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -2795,87 +2795,87 @@
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
@@ -2887,194 +2887,194 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5521969783130</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5511918696260</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -3084,14 +3084,14 @@
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -3101,65 +3101,65 @@
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+5521969783130</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5511918696260</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -3169,14 +3169,14 @@
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
@@ -3186,99 +3186,99 @@
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -3288,121 +3288,121 @@
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+553591229032</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
@@ -3414,109 +3414,109 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+553591229032</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -3526,104 +3526,104 @@
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -3635,12 +3635,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -3652,12 +3652,12 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -3669,173 +3669,177 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5515998598533</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+5511947769013</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+5511953499879</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr"/>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+5511957562684</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -3845,41 +3849,156 @@
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5524999327754</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
+          <t>+558699687586</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr"/>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
           <t>+5521965197022</t>
         </is>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B208" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C208" s="2" t="inlineStr">
         <is>
           <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>+556298529715</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
         </is>
       </c>
     </row>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,24 +477,24 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5511995005483</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511943271107</t>
+          <t>+5511977538423</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -504,320 +504,320 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+553199028131</t>
+          <t>+5511920143449</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+555184576071</t>
+          <t>+556194520205</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5521965979948</t>
+          <t>+5511947132973</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+556186533564</t>
+          <t>+5521974855968</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511950609656</t>
+          <t>+556299060586</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511967663538</t>
+          <t>+555193669200</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+5511948066627</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+556182603325</t>
+          <t>+5517981320321</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5521994172524</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+5519994757305</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+5514996136195</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+555199322869</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5519989071084</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+558491181674</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5511994736173</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+5513991481556</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+5521983285325</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+556195021826</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+5511995005483</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -827,116 +827,116 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+5511943271107</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+553199028131</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+555184576071</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+5521965979948</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+556186533564</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+5511950609656</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -946,31 +946,31 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+556181190993</t>
+          <t>+556182603325</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -980,82 +980,82 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5515998011590</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -1065,14 +1065,14 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -1082,473 +1082,473 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5511954735353</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5514981742179</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+556181190993</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5515998011590</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+5511954735353</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -1558,87 +1558,87 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+553197154454</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+5514981742179</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1650,12 +1650,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1667,7 +1667,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -1684,12 +1684,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1701,75 +1701,75 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5521994487873</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -1779,231 +1779,235 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr"/>
+          <t>+5511951777030</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -2013,150 +2017,150 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+5521994487873</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -2166,82 +2170,78 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
@@ -2251,19 +2251,19 @@
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5511916026029</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2275,126 +2275,126 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -2404,167 +2404,167 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5511974894870</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -2574,14 +2574,14 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -2591,184 +2591,184 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5511916026029</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -2778,82 +2778,82 @@
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+5511974894870</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -2863,65 +2863,65 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -2931,82 +2931,82 @@
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -3016,99 +3016,99 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -3118,82 +3118,82 @@
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5521969783130</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5511918696260</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -3203,31 +3203,31 @@
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -3237,48 +3237,48 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -3288,48 +3288,48 @@
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
@@ -3339,167 +3339,167 @@
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+553591229032</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5521969783130</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+5511918696260</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
@@ -3509,14 +3509,14 @@
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -3526,14 +3526,14 @@
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -3543,82 +3543,82 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -3628,116 +3628,116 @@
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
@@ -3747,99 +3747,99 @@
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+553591229032</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -3849,112 +3849,116 @@
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr"/>
+          <t>+5521973034869</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -3964,39 +3968,375 @@
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
+          <t>+553491564119</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>+556198857512</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>+553597695870</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>+553898991517</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>+5515998598533</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>+555185474443</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>+555191089346</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>+5511947769013</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>+5511953499879</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>+5521997432262</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>+5511957562684</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>+5524999327754</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>+558699687586</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr"/>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B209" s="2" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C209" s="2" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,364 +477,364 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511977538423</t>
+          <t>+554888591351</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511920143449</t>
+          <t>+5521970977805</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+556194520205</t>
+          <t>+558899015765</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5511947132973</t>
+          <t>+5521988699714</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5521974855968</t>
+          <t>+5511948751419</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+556299060586</t>
+          <t>+5511953388284</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+555193669200</t>
+          <t>+5521982055578</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511948066627</t>
+          <t>+557799857403</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5517981320321</t>
+          <t>+5511973771825</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5521994172524</t>
+          <t>+5511954175426</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5519994757305</t>
+          <t>+5511912394391</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5514996136195</t>
+          <t>+5513981973676</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+555199322869</t>
+          <t>+5521987615374</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5519989071084</t>
+          <t>+5521967834448</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+558491181674</t>
+          <t>+5519991812203</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5511994736173</t>
+          <t>+553186668589</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5513991481556</t>
+          <t>+5521977904994</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5521983285325</t>
+          <t>+5511980888856</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+556195021826</t>
+          <t>+5511976109938</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511995005483</t>
+          <t>+5518996757984</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511943271107</t>
+          <t>+5511910821824</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -844,99 +844,99 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+553199028131</t>
+          <t>+5511991077411</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+555184576071</t>
+          <t>+553384671185</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5521965979948</t>
+          <t>+5518997060153</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+556186533564</t>
+          <t>+5511970470574</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5511950609656</t>
+          <t>+554797176980</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511967663538</t>
+          <t>+5511975879346</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -946,354 +946,354 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+556195070110</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+556182603325</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+556282998979</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+553798219783</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+5521969914242</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5511977538423</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+556194520205</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5511947132973</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+5521974855968</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+555193669200</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+5521997899616</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+5521994172524</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+5512992372334</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+5519989071084</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+558491181674</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+5511994736173</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+5521983285325</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+556195021826</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5514991722226</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5511943271107</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -1303,337 +1303,337 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+556181190993</t>
+          <t>+553199028131</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+555184576071</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+5521965979948</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+556186533564</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5515998011590</t>
+          <t>+5511950609656</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+556182603325</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5511954735353</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5514981742179</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -1643,14 +1643,14 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -1660,201 +1660,201 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+556181190993</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+5515998011590</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -1864,252 +1864,252 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+553197154454</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+5514981742179</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5521994487873</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -2119,231 +2119,235 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr"/>
+          <t>+5516993020307</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -2353,31 +2357,31 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -2387,167 +2391,167 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5521994487873</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -2557,252 +2561,248 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5511916026029</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -2812,14 +2812,14 @@
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
@@ -2829,201 +2829,201 @@
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5511974894870</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
@@ -3033,14 +3033,14 @@
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -3050,184 +3050,184 @@
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
@@ -3237,303 +3237,303 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5521969783130</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5511918696260</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -3543,65 +3543,65 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
@@ -3611,82 +3611,82 @@
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -3696,150 +3696,150 @@
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+553591229032</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
@@ -3849,48 +3849,48 @@
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5521969783130</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
@@ -3900,65 +3900,65 @@
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5511918696260</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -3968,167 +3968,167 @@
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
@@ -4138,146 +4138,150 @@
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+553591229032</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B225" s="2" t="inlineStr"/>
+          <t>+5511988728016</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
@@ -4287,56 +4291,477 @@
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
+          <t>+5521973034869</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>+5522988681272</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>+5511940799019</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>+556295423845</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="inlineStr">
+        <is>
+          <t>+553491564119</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>+556198857512</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr">
+        <is>
+          <t>+553597695870</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>+553898991517</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>+5515998598533</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>+555185474443</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr">
+        <is>
+          <t>+555191089346</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>+5521965489343</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>+5511947769013</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>+5511953499879</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>+5521997432262</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr">
+        <is>
+          <t>+5511957562684</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C245" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>+5524999327754</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="inlineStr">
+        <is>
+          <t>+558699687586</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C247" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr"/>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="inlineStr">
+        <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C253" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C254"/>
+  <dimension ref="A1:C293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,92 +477,92 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+5521998706605</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+554888591351</t>
+          <t>+556191367653</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5521970977805</t>
+          <t>+5511973932220</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+558899015765</t>
+          <t>+5522974033975</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5521988699714</t>
+          <t>+5511985967669</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511948751419</t>
+          <t>+5511940643457</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -572,99 +572,99 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511953388284</t>
+          <t>+555199794505</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5521982055578</t>
+          <t>+555195130045</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+557799857403</t>
+          <t>+553288837087</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511973771825</t>
+          <t>+5515991499775</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511954175426</t>
+          <t>+5522997883711</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5511912394391</t>
+          <t>+5511970813629</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -674,65 +674,65 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5513981973676</t>
+          <t>+5511932955115</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5521987615374</t>
+          <t>+553898204728</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5521967834448</t>
+          <t>+5515991360880</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5519991812203</t>
+          <t>+5519994486769</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -742,65 +742,65 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+553186668589</t>
+          <t>+5511933816759</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5521977904994</t>
+          <t>+5516994145282</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511980888856</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511976109938</t>
+          <t>+5511983083118</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -810,31 +810,31 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5518996757984</t>
+          <t>+5511957104381</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511910821824</t>
+          <t>+5511933875895</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -844,218 +844,218 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5511991077411</t>
+          <t>+556294234066</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+553384671185</t>
+          <t>+5522981737925</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5518997060153</t>
+          <t>+553172591116</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5511970470574</t>
+          <t>+5521972158401</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+554797176980</t>
+          <t>+555591772721</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511975879346</t>
+          <t>+556194431510</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+556195070110</t>
+          <t>+553192224483</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+553186285922</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+556282998979</t>
+          <t>+5511946095256</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+553798219783</t>
+          <t>+553384639812</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5521969914242</t>
+          <t>+5513982140457</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+556191665672</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5511977538423</t>
+          <t>+5511951699898</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -1065,167 +1065,167 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+556194520205</t>
+          <t>+5511951203296</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5511947132973</t>
+          <t>+5515998417129</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5521974855968</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+555193669200</t>
+          <t>+5521990537643</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5521997899616</t>
+          <t>+5516994467000</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5521994172524</t>
+          <t>+5512992001544</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5512992372334</t>
+          <t>+5511946375498</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5519989071084</t>
+          <t>+558899015765</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+558491181674</t>
+          <t>+5521988699714</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5511994736173</t>
+          <t>+5511948751419</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -1235,82 +1235,82 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5521983285325</t>
+          <t>+5511973771825</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+556195021826</t>
+          <t>+5511954175426</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5514991722226</t>
+          <t>+5511912394391</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5511943271107</t>
+          <t>+5519991812203</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+553199028131</t>
+          <t>+553186668589</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -1320,218 +1320,218 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+555184576071</t>
+          <t>+5521977904994</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5521965979948</t>
+          <t>+553491955207</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+556186533564</t>
+          <t>+5511960205766</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511950609656</t>
+          <t>+5521991755401</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5511967663538</t>
+          <t>+553597386826</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+5511980888856</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+556182603325</t>
+          <t>+558799459968</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+556199822077</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+558394013004</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+5518996757984</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+5511991077411</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5518997060153</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+5511970470574</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -1541,48 +1541,48 @@
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5519983112838</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+554797176980</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+5511975879346</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -1592,116 +1592,116 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+556195070110</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+556282998979</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+553798219783</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+5521969914242</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+5511977538423</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -1711,31 +1711,31 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+556194520205</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5511947132973</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -1745,235 +1745,235 @@
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+555193669200</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+556181190993</t>
+          <t>+5521997899616</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+5521994172524</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+5512992372334</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+5519989071084</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5515998011590</t>
+          <t>+558491181674</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+5511994736173</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+5521983285325</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+556195021826</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5514991722226</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+5511943271107</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+553199028131</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+555184576071</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+5521965979948</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -1983,235 +1983,235 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+556186533564</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+5511950609656</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5514981742179</t>
+          <t>+556182603325</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -2221,116 +2221,116 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -2340,48 +2340,48 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -2391,452 +2391,456 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+556181190993</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+5515998011590</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5521994487873</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr"/>
+          <t>+553197154454</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+5514981742179</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -2846,82 +2850,82 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -2931,82 +2935,82 @@
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -3016,65 +3020,65 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -3084,558 +3088,554 @@
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5521994487873</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr"/>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
@@ -3645,14 +3645,14 @@
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
@@ -3662,286 +3662,286 @@
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5521969783130</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5511918696260</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
@@ -3951,320 +3951,320 @@
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+553591229032</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
@@ -4274,31 +4274,31 @@
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
@@ -4308,218 +4308,218 @@
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5521969783130</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
@@ -4529,14 +4529,14 @@
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+5511918696260</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
@@ -4546,14 +4546,14 @@
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
@@ -4563,48 +4563,48 @@
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+5511990011295</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
@@ -4614,154 +4614,817 @@
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B250" s="2" t="inlineStr"/>
+          <t>+5521997452192</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
+          <t>+5515997311227</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>+5511991898733</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>+555186932954</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="inlineStr">
+        <is>
+          <t>+556295505222</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C257" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr">
+        <is>
+          <t>+5515996802393</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="inlineStr">
+        <is>
+          <t>+553591229032</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C259" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>+5511953342142</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="inlineStr">
+        <is>
+          <t>+5519993458891</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C261" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>+5511975239143</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="inlineStr">
+        <is>
+          <t>+5511988728016</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>+5511937521372</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="inlineStr">
+        <is>
+          <t>+5521971675879</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t>+553189770327</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="inlineStr">
+        <is>
+          <t>+5521973034869</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>+5522988681272</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="inlineStr">
+        <is>
+          <t>+5511940799019</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>+556295423845</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="inlineStr">
+        <is>
+          <t>+553491564119</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr">
+        <is>
+          <t>+556198857512</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="inlineStr">
+        <is>
+          <t>+553597695870</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C273" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="inlineStr">
+        <is>
+          <t>+553898991517</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="inlineStr">
+        <is>
+          <t>+5515998598533</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C275" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="inlineStr">
+        <is>
+          <t>+555185474443</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="inlineStr">
+        <is>
+          <t>+555191089346</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C277" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr">
+        <is>
+          <t>+5521965489343</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="inlineStr">
+        <is>
+          <t>+5511947769013</t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C279" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="inlineStr">
+        <is>
+          <t>+5511953499879</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C280" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="inlineStr">
+        <is>
+          <t>+5521997432262</t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C281" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="inlineStr">
+        <is>
+          <t>+555192716884</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C282" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="inlineStr">
+        <is>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B283" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C283" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="inlineStr">
+        <is>
+          <t>+5511957562684</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C284" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="inlineStr">
+        <is>
+          <t>+5524999327754</t>
+        </is>
+      </c>
+      <c r="B285" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C285" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="inlineStr">
+        <is>
+          <t>+558699687586</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C286" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="inlineStr">
+        <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B287" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C287" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C288" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="inlineStr"/>
+      <c r="C289" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C290" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B291" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C291" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="inlineStr">
+        <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C292" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B293" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C293" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,92 +477,92 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5521998706605</t>
+          <t>+553491559844</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+556191367653</t>
+          <t>+5511944883418</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511973932220</t>
+          <t>+553597610852</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5522974033975</t>
+          <t>+553196621053</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5511985967669</t>
+          <t>+553888173806</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511940643457</t>
+          <t>+5511953300048</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -572,172 +572,172 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+555199794505</t>
+          <t>+557388375022</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+555195130045</t>
+          <t>+5521970591815</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+553288837087</t>
+          <t>+555584376758</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5515991499775</t>
+          <t>+5522988398546</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5522997883711</t>
+          <t>+5511989615168</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5511970813629</t>
+          <t>+5521985600431</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5511932955115</t>
+          <t>+557798544944</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+553898204728</t>
+          <t>+553196003962</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5515991360880</t>
+          <t>+553491573143</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5519994486769</t>
+          <t>+5522997684436</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5511933816759</t>
+          <t>+5511919488174</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5516994145282</t>
+          <t>+5511940643457</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -783,12 +783,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+556184978538</t>
+          <t>+553398405443</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511983083118</t>
+          <t>+556199594992</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511957104381</t>
+          <t>+555195130045</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511933875895</t>
+          <t>+553192317871</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+556294234066</t>
+          <t>+553288837087</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5522981737925</t>
+          <t>+555182056614</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -885,12 +885,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+553172591116</t>
+          <t>+555597004997</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5521972158401</t>
+          <t>+553496464470</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -919,12 +919,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+555591772721</t>
+          <t>+5515991360880</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+556194431510</t>
+          <t>+5511933816759</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+553192224483</t>
+          <t>+5521971980037</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -970,12 +970,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+553186285922</t>
+          <t>+5511969671185</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511946095256</t>
+          <t>+553284909728</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+553384639812</t>
+          <t>+5516994145282</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1021,12 +1021,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5513982140457</t>
+          <t>+5518996713803</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1038,12 +1038,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+556191665672</t>
+          <t>+5519996918169</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1055,12 +1055,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5511951699898</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5511951203296</t>
+          <t>+5511957104381</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -1089,177 +1089,177 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5515998417129</t>
+          <t>+5511933875895</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+553187205987</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5521990537643</t>
+          <t>+553172529279</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5516994467000</t>
+          <t>+5522981737925</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5512992001544</t>
+          <t>+553172591116</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5511946375498</t>
+          <t>+5521972158401</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+558899015765</t>
+          <t>+555591772721</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5521988699714</t>
+          <t>+5511951699898</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5511948751419</t>
+          <t>+555499512062</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5511973771825</t>
+          <t>+5515998417129</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5511954175426</t>
+          <t>+5511932857559</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -1269,14 +1269,14 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5511912394391</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -1286,99 +1286,99 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5519991812203</t>
+          <t>+5521990537643</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+553186668589</t>
+          <t>+5516994467000</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5521977904994</t>
+          <t>+5512992001544</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+553491955207</t>
+          <t>+5511946375498</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5511960205766</t>
+          <t>+558899015765</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5521991755401</t>
+          <t>+5521988699714</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -1388,31 +1388,31 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+553597386826</t>
+          <t>+5511948751419</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5511980888856</t>
+          <t>+5511954175426</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
@@ -1422,82 +1422,82 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+558799459968</t>
+          <t>+5511912394391</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+556199822077</t>
+          <t>+5519991812203</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+558394013004</t>
+          <t>+553186668589</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5518996757984</t>
+          <t>+5521977904994</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5511991077411</t>
+          <t>+5511960205766</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -1507,19 +1507,19 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5518997060153</t>
+          <t>+5521991755401</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1531,12 +1531,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5511970470574</t>
+          <t>+553597386826</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1548,12 +1548,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5519983112838</t>
+          <t>+5511980888856</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+554797176980</t>
+          <t>+558799459968</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -1582,12 +1582,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5511975879346</t>
+          <t>+556199822077</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1599,12 +1599,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+556195070110</t>
+          <t>+558394013004</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1616,92 +1616,92 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+5511991077411</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+556282998979</t>
+          <t>+5518997060153</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+553798219783</t>
+          <t>+5511970470574</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5521969914242</t>
+          <t>+5519983112838</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+554797176980</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5511977538423</t>
+          <t>+5511975879346</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -1711,19 +1711,19 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+556194520205</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1735,12 +1735,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5511947132973</t>
+          <t>+556282998979</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -1752,12 +1752,12 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+555193669200</t>
+          <t>+5521969914242</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -1769,12 +1769,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5521997899616</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -1786,12 +1786,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5521994172524</t>
+          <t>+5511977538423</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -1803,12 +1803,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5512992372334</t>
+          <t>+556194520205</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -1820,12 +1820,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5519989071084</t>
+          <t>+5511947132973</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -1837,12 +1837,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+558491181674</t>
+          <t>+555193669200</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -1854,12 +1854,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5511994736173</t>
+          <t>+5521997899616</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -1871,131 +1871,131 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5521983285325</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+556195021826</t>
+          <t>+553194006188</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5514991722226</t>
+          <t>+5521994172524</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5511943271107</t>
+          <t>+5512992372334</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+553199028131</t>
+          <t>+5519989071084</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+555184576071</t>
+          <t>+558491181674</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5521965979948</t>
+          <t>+5511994736173</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+556186533564</t>
+          <t>+5521983285325</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2007,12 +2007,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5511950609656</t>
+          <t>+556195021826</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -2024,143 +2024,143 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5511967663538</t>
+          <t>+5514991722226</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+5511943271107</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+556182603325</t>
+          <t>+553199028131</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+555184576071</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+5521965979948</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+556186533564</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5511950609656</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -2170,48 +2170,48 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+556182603325</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -2221,116 +2221,116 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
@@ -2340,48 +2340,48 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -2391,116 +2391,116 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+556181190993</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5515998011590</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -2510,138 +2510,138 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+556181190993</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+5515998011590</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -2653,12 +2653,12 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -2670,12 +2670,12 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -2687,12 +2687,12 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5514981742179</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -2704,148 +2704,148 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+553197154454</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5514981742179</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
@@ -2874,12 +2874,12 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
@@ -2891,12 +2891,12 @@
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
@@ -2908,12 +2908,12 @@
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
@@ -2925,12 +2925,12 @@
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -2942,12 +2942,12 @@
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
@@ -2959,12 +2959,12 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -2976,7 +2976,7 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -2993,12 +2993,12 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
@@ -3010,12 +3010,12 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
@@ -3027,12 +3027,12 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
@@ -3044,12 +3044,12 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
@@ -3061,12 +3061,12 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -3078,12 +3078,12 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
@@ -3095,12 +3095,12 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
@@ -3112,41 +3112,41 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
@@ -3156,65 +3156,65 @@
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5521994487873</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -3224,36 +3224,36 @@
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
@@ -3265,12 +3265,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -3282,12 +3282,12 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -3299,10 +3299,14 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr"/>
+          <t>+5521994487873</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
           <t>2024-10-03</t>
@@ -3312,12 +3316,12 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -3329,148 +3333,144 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr"/>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -3482,12 +3482,12 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
@@ -3499,12 +3499,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -3533,12 +3533,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -3550,12 +3550,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
@@ -3584,12 +3584,12 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
@@ -3601,12 +3601,12 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
@@ -3618,12 +3618,12 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -3635,7 +3635,7 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
@@ -3652,12 +3652,12 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -3669,143 +3669,143 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -3822,7 +3822,7 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
@@ -3839,12 +3839,12 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
@@ -3856,7 +3856,7 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
@@ -3873,12 +3873,12 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
@@ -3907,7 +3907,7 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
@@ -3941,12 +3941,12 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
@@ -3958,7 +3958,7 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -3975,12 +3975,12 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -3992,58 +3992,58 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -4053,14 +4053,14 @@
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
@@ -4070,218 +4070,218 @@
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
@@ -4291,150 +4291,150 @@
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
@@ -4444,14 +4444,14 @@
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
@@ -4461,133 +4461,133 @@
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5521969783130</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5511918696260</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
@@ -4597,14 +4597,14 @@
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5511990011295</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
@@ -4614,65 +4614,65 @@
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5521969783130</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5511918696260</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
@@ -4682,65 +4682,65 @@
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5511990011295</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
@@ -4750,167 +4750,167 @@
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+553591229032</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
@@ -4920,240 +4920,240 @@
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+553591229032</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
@@ -5165,266 +5165,402 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+555192716884</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5515998598533</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+5511947769013</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5511953499879</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B289" s="2" t="inlineStr"/>
+          <t>+5521997432262</t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+555192716884</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+5511957562684</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
+          <t>+5524999327754</t>
+        </is>
+      </c>
+      <c r="B293" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C293" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="inlineStr">
+        <is>
+          <t>+558699687586</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C294" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="inlineStr">
+        <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B295" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C295" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C296" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="inlineStr"/>
+      <c r="C297" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C298" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C299" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="inlineStr">
+        <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C300" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B293" s="2" t="inlineStr">
+      <c r="B301" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C293" s="2" t="inlineStr">
+      <c r="C301" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -477,12 +477,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+553491559844</t>
+          <t>+5516992621004</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -494,12 +494,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511944883418</t>
+          <t>+5517996026345</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -511,12 +511,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+553597610852</t>
+          <t>+553491559844</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -528,12 +528,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+553196621053</t>
+          <t>+5511944883418</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+553888173806</t>
+          <t>+553597610852</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -562,12 +562,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511953300048</t>
+          <t>+553196621053</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -579,46 +579,46 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+557388375022</t>
+          <t>+553888173806</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5521970591815</t>
+          <t>+5511953300048</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+555584376758</t>
+          <t>+5511994806816</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5522988398546</t>
+          <t>+557388375022</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -647,12 +647,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511989615168</t>
+          <t>+5521970591815</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5521985600431</t>
+          <t>+555584376758</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -681,12 +681,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+557798544944</t>
+          <t>+5522988398546</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+553196003962</t>
+          <t>+5511989615168</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+553491573143</t>
+          <t>+5521985600431</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -732,63 +732,63 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5522997684436</t>
+          <t>+557798544944</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5511919488174</t>
+          <t>+553196003962</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5511940643457</t>
+          <t>+553491573143</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+553398405443</t>
+          <t>+5522997684436</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+556199594992</t>
+          <t>+5511919488174</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+555195130045</t>
+          <t>+553398405443</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+553192317871</t>
+          <t>+556199594992</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+553288837087</t>
+          <t>+555195130045</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+555182056614</t>
+          <t>+553192317871</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -885,12 +885,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+555597004997</t>
+          <t>+553288837087</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+553496464470</t>
+          <t>+555182056614</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -919,12 +919,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5515991360880</t>
+          <t>+555597004997</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5511933816759</t>
+          <t>+553496464470</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -953,12 +953,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5521971980037</t>
+          <t>+5515991360880</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -970,7 +970,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511969671185</t>
+          <t>+5511933816759</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -987,12 +987,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+553284909728</t>
+          <t>+5521971980037</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5516994145282</t>
+          <t>+5511969671185</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1021,12 +1021,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5518996713803</t>
+          <t>+553284909728</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1038,12 +1038,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5519996918169</t>
+          <t>+5516994145282</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1055,12 +1055,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+556184978538</t>
+          <t>+5518996713803</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1072,12 +1072,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5511957104381</t>
+          <t>+5519996918169</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5511933875895</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1106,12 +1106,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+553187205987</t>
+          <t>+5511933875895</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1123,7 +1123,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+553172529279</t>
+          <t>+553187205987</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C317"/>
+  <dimension ref="A1:C327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,92 +477,92 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+556293667982</t>
+          <t>+5516993092794</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5521991955929</t>
+          <t>+558888756112</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5515992470961</t>
+          <t>+5521976712324</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+555198495080</t>
+          <t>+557799865258</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5519998638191</t>
+          <t>+5516999926102</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511965461757</t>
+          <t>+5511996844009</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -572,19 +572,19 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511988572045</t>
+          <t>+5521971742557</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511991283384</t>
+          <t>+5519971680538</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -613,12 +613,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+558681695160</t>
+          <t>+553892209509</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5516993313246</t>
+          <t>+553892268133</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -647,12 +647,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5521969509091</t>
+          <t>+5511920075911</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -664,182 +664,182 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+553499652553</t>
+          <t>+5512988650307</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5516992621004</t>
+          <t>+556199558235</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5511930927923</t>
+          <t>+5521965498026</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+553491559844</t>
+          <t>+5518997653369</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511944883418</t>
+          <t>+556293667982</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5518991568866</t>
+          <t>+555198495080</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+553597610852</t>
+          <t>+5519998638191</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+553196621053</t>
+          <t>+5511965461757</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511983641384</t>
+          <t>+5514981588270</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+553888173806</t>
+          <t>+5521969509091</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511953300048</t>
+          <t>+553499652553</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5511963499586</t>
+          <t>+5511948117520</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -861,189 +861,189 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+553192222396</t>
+          <t>+5516992621004</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+557388375022</t>
+          <t>+553491559844</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5515981337872</t>
+          <t>+553198253411</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5521970591815</t>
+          <t>+5511944883418</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+555584376758</t>
+          <t>+5518991568866</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5511948871594</t>
+          <t>+553196621053</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5522988398546</t>
+          <t>+5511983641384</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511989615168</t>
+          <t>+5519971058370</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5521985600431</t>
+          <t>+553888173806</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+557798544944</t>
+          <t>+5511953300048</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+553196003962</t>
+          <t>+5511963499586</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1055,12 +1055,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+553491573143</t>
+          <t>+553192222396</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1072,216 +1072,216 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5522997684436</t>
+          <t>+5521968506908</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5511919488174</t>
+          <t>+557388375022</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+553398405443</t>
+          <t>+5515981337872</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+556199594992</t>
+          <t>+5521970591815</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+555195130045</t>
+          <t>+555584376758</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+553192317871</t>
+          <t>+5511948871594</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+555182056614</t>
+          <t>+5522988398546</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+555597004997</t>
+          <t>+5511989615168</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+553496464470</t>
+          <t>+5521985600431</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5515991360880</t>
+          <t>+557798544944</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5511933816759</t>
+          <t>+553196003962</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5521971980037</t>
+          <t>+553491573143</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5511969671185</t>
+          <t>+5522997684436</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+553284909728</t>
+          <t>+5511919488174</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1310,12 +1310,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5516994145282</t>
+          <t>+553398405443</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1327,12 +1327,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5518996713803</t>
+          <t>+556199594992</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1344,12 +1344,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5519996918169</t>
+          <t>+555195130045</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+556184978538</t>
+          <t>+5511992475373</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511933875895</t>
+          <t>+553192317871</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1395,12 +1395,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+553187205987</t>
+          <t>+555182056614</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1412,12 +1412,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5522981737925</t>
+          <t>+555597004997</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+553172591116</t>
+          <t>+553496464470</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1446,12 +1446,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5521972158401</t>
+          <t>+5515991360880</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -1463,12 +1463,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+555591772721</t>
+          <t>+5511933816759</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5511951699898</t>
+          <t>+5521971980037</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1497,12 +1497,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+555499512062</t>
+          <t>+5511969671185</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1514,194 +1514,194 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5515998417129</t>
+          <t>+553284909728</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5511932857559</t>
+          <t>+5516994145282</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+5518996713803</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5521990537643</t>
+          <t>+5519996918169</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5516994467000</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5512992001544</t>
+          <t>+5511933875895</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511946375498</t>
+          <t>+553187205987</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+558899015765</t>
+          <t>+5522981737925</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5521988699714</t>
+          <t>+553172591116</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5511948751419</t>
+          <t>+5521972158401</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5511954175426</t>
+          <t>+555591772721</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5511912394391</t>
+          <t>+5511951699898</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -1711,65 +1711,65 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5519991812203</t>
+          <t>+555499512062</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+553186668589</t>
+          <t>+5515998417129</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5521977904994</t>
+          <t>+5511932857559</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5511960205766</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -1779,14 +1779,14 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5521991755401</t>
+          <t>+5521990537643</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -1796,99 +1796,99 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+553597386826</t>
+          <t>+5516994467000</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5511980888856</t>
+          <t>+5512992001544</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+558799459968</t>
+          <t>+5511946375498</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+556199822077</t>
+          <t>+558899015765</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+558394013004</t>
+          <t>+5521988699714</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511991077411</t>
+          <t>+5511948751419</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -1898,31 +1898,31 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5518997060153</t>
+          <t>+5511954175426</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5511970470574</t>
+          <t>+5511912394391</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -1932,14 +1932,14 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5519983112838</t>
+          <t>+5519991812203</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -1949,133 +1949,133 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+554797176980</t>
+          <t>+553186668589</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5511975879346</t>
+          <t>+5521977904994</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+5511960205766</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+556282998979</t>
+          <t>+5521991755401</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5521969914242</t>
+          <t>+553597386826</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+5511980888856</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5511977538423</t>
+          <t>+558799459968</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+556194520205</t>
+          <t>+556199822077</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -2085,138 +2085,138 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511947132973</t>
+          <t>+558394013004</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+555193669200</t>
+          <t>+5511991077411</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5521997899616</t>
+          <t>+5518997060153</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5519997201600</t>
+          <t>+5511970470574</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+553194006188</t>
+          <t>+5519983112838</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5521994172524</t>
+          <t>+554797176980</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5512992372334</t>
+          <t>+5511975879346</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5519989071084</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2228,12 +2228,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+558491181674</t>
+          <t>+556282998979</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2245,12 +2245,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5511994736173</t>
+          <t>+5521969914242</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2262,58 +2262,58 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5521983285325</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+556195021826</t>
+          <t>+5511977538423</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5514991722226</t>
+          <t>+556194520205</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5511943271107</t>
+          <t>+5511947132973</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -2323,337 +2323,337 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+553199028131</t>
+          <t>+555193669200</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+5521997899616</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+555184576071</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5521965979948</t>
+          <t>+553194006188</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+556186533564</t>
+          <t>+5521994172524</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5511950609656</t>
+          <t>+5512992372334</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5511967663538</t>
+          <t>+5519989071084</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+558491181674</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+556182603325</t>
+          <t>+5511994736173</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5521983285325</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+556195021826</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+5514991722226</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+5511943271107</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+553199028131</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+555184576071</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+5521965979948</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+556186533564</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+5511950609656</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -2663,99 +2663,99 @@
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+556182603325</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -2765,31 +2765,31 @@
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -2799,116 +2799,116 @@
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+556181190993</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5515998011590</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
@@ -2918,14 +2918,14 @@
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -2935,269 +2935,269 @@
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+556181190993</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5521959003211</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
@@ -3207,121 +3207,121 @@
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5521959003211</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+553197154454</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -3333,12 +3333,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
@@ -3350,12 +3350,12 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
@@ -3367,12 +3367,12 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
@@ -3401,12 +3401,12 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
@@ -3435,12 +3435,12 @@
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
@@ -3452,12 +3452,12 @@
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
@@ -3469,12 +3469,12 @@
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -3486,12 +3486,12 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
@@ -3503,12 +3503,12 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -3520,75 +3520,75 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5521994487873</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -3598,31 +3598,31 @@
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
@@ -3632,100 +3632,104 @@
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr"/>
+          <t>+5519999083111</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
@@ -3737,199 +3741,195 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr"/>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
@@ -3941,12 +3941,12 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
@@ -3958,12 +3958,12 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
@@ -3975,12 +3975,12 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -3992,12 +3992,12 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
@@ -4009,12 +4009,12 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
@@ -4026,7 +4026,7 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
@@ -4043,7 +4043,7 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
@@ -4060,12 +4060,12 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
@@ -4077,41 +4077,41 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -4121,172 +4121,172 @@
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -4298,12 +4298,12 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
@@ -4315,12 +4315,12 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
@@ -4332,12 +4332,12 @@
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
@@ -4349,12 +4349,12 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
@@ -4366,7 +4366,7 @@
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
@@ -4383,12 +4383,12 @@
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
@@ -4400,534 +4400,534 @@
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5512991103006</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5521969783130</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
@@ -4937,14 +4937,14 @@
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5511918696260</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
@@ -4954,133 +4954,133 @@
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5511990011295</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
@@ -5090,65 +5090,65 @@
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -5158,31 +5158,31 @@
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
@@ -5192,82 +5192,82 @@
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5511990011295</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+553591229032</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
@@ -5277,65 +5277,65 @@
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
@@ -5345,252 +5345,252 @@
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
@@ -5600,180 +5600,184 @@
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+555192716884</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+5515998598533</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B313" s="2" t="inlineStr"/>
+          <t>+5511947769013</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+5511953499879</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
@@ -5783,56 +5787,222 @@
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+555192716884</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B317" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C317" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="inlineStr">
+        <is>
+          <t>+5511957562684</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C318" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="inlineStr">
+        <is>
+          <t>+5524999327754</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C319" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="inlineStr">
+        <is>
+          <t>+558699687586</t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C320" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="inlineStr">
+        <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C321" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C322" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="inlineStr"/>
+      <c r="C323" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C324" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C325" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="inlineStr">
+        <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C326" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B317" s="2" t="inlineStr">
+      <c r="B327" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C317" s="2" t="inlineStr">
+      <c r="C327" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C327"/>
+  <dimension ref="A1:C338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,41 +477,41 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5516993092794</t>
+          <t>+553184787803</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+558888756112</t>
+          <t>+5519971423096</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5521976712324</t>
+          <t>+5521965847902</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -521,167 +521,163 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+557799865258</t>
+          <t>+5512981189051</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5516999926102</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
+          <t>+59891463058</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511996844009</t>
+          <t>+5522988120988</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5521971742557</t>
+          <t>+5515997545613</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5519971680538</t>
+          <t>+5521983721028</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+553892209509</t>
+          <t>+5521995957477</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+553892268133</t>
+          <t>+5521970107283</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511920075911</t>
+          <t>+557996647242</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5512988650307</t>
+          <t>+5517991357495</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+556199558235</t>
+          <t>+556194122877</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -691,104 +687,104 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5521965498026</t>
+          <t>+5511993516472</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5518997653369</t>
+          <t>+5516993092794</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+556293667982</t>
+          <t>+558888756112</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+555198495080</t>
+          <t>+5521976712324</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5519998638191</t>
+          <t>+5511996844009</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511965461757</t>
+          <t>+5519971680538</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -800,12 +796,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5514981588270</t>
+          <t>+553892209509</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,12 +813,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5521969509091</t>
+          <t>+553892268133</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,143 +830,143 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+553499652553</t>
+          <t>+5511920075911</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5511948117520</t>
+          <t>+5512988650307</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5516992621004</t>
+          <t>+556199558235</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+553491559844</t>
+          <t>+5521965498026</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+553198253411</t>
+          <t>+5518997653369</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5511944883418</t>
+          <t>+556293667982</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5518991568866</t>
+          <t>+555198495080</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+553196621053</t>
+          <t>+5519998638191</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511983641384</t>
+          <t>+5511965461757</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -980,53 +976,53 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5519971058370</t>
+          <t>+5514981588270</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+553888173806</t>
+          <t>+5521969509091</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5511953300048</t>
+          <t>+553499652553</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1038,7 +1034,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5511963499586</t>
+          <t>+5511948117520</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -1048,116 +1044,116 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+553192222396</t>
+          <t>+5516992621004</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5521968506908</t>
+          <t>+553491559844</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+557388375022</t>
+          <t>+553198253411</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5515981337872</t>
+          <t>+5511944883418</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5521970591815</t>
+          <t>+5518991568866</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+555584376758</t>
+          <t>+553196621053</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5511948871594</t>
+          <t>+5511983641384</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1167,70 +1163,70 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5522988398546</t>
+          <t>+5519971058370</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5511989615168</t>
+          <t>+553888173806</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5521985600431</t>
+          <t>+5511953300048</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+557798544944</t>
+          <t>+5511963499586</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1242,7 +1238,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+553196003962</t>
+          <t>+553192222396</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -1259,12 +1255,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+553491573143</t>
+          <t>+5521968506908</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1276,199 +1272,199 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5522997684436</t>
+          <t>+557388375022</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5511919488174</t>
+          <t>+5515981337872</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+553398405443</t>
+          <t>+5521970591815</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+556199594992</t>
+          <t>+555584376758</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+555195130045</t>
+          <t>+5511948871594</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5511992475373</t>
+          <t>+5522988398546</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+553192317871</t>
+          <t>+5511989615168</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+555182056614</t>
+          <t>+5521985600431</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+555597004997</t>
+          <t>+557798544944</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+553496464470</t>
+          <t>+553196003962</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5515991360880</t>
+          <t>+553491573143</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5511933816759</t>
+          <t>+5522997684436</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1480,12 +1476,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5521971980037</t>
+          <t>+5511919488174</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1497,12 +1493,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5511969671185</t>
+          <t>+553398405443</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1514,12 +1510,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+553284909728</t>
+          <t>+556199594992</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1531,12 +1527,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5516994145282</t>
+          <t>+555195130045</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1548,12 +1544,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5518996713803</t>
+          <t>+5511992475373</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -1565,12 +1561,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5519996918169</t>
+          <t>+553192317871</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -1582,12 +1578,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+556184978538</t>
+          <t>+555182056614</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1599,12 +1595,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5511933875895</t>
+          <t>+555597004997</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1616,12 +1612,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+553187205987</t>
+          <t>+553496464470</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1633,12 +1629,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5522981737925</t>
+          <t>+5515991360880</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1650,12 +1646,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+553172591116</t>
+          <t>+5511933816759</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1667,7 +1663,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5521972158401</t>
+          <t>+5521971980037</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -1684,12 +1680,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+555591772721</t>
+          <t>+5511969671185</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1701,12 +1697,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5511951699898</t>
+          <t>+553284909728</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1718,12 +1714,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+555499512062</t>
+          <t>+5516994145282</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1735,160 +1731,160 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5515998417129</t>
+          <t>+5518996713803</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5511932857559</t>
+          <t>+5519996918169</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5521990537643</t>
+          <t>+5511933875895</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5516994467000</t>
+          <t>+553187205987</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5512992001544</t>
+          <t>+5522981737925</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5511946375498</t>
+          <t>+553172591116</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+558899015765</t>
+          <t>+5521972158401</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5521988699714</t>
+          <t>+555591772721</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511948751419</t>
+          <t>+5511951699898</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -1898,82 +1894,82 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5511954175426</t>
+          <t>+555499512062</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5511912394391</t>
+          <t>+5515998417129</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5519991812203</t>
+          <t>+5511932857559</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+553186668589</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5521977904994</t>
+          <t>+5521990537643</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -1983,133 +1979,133 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5511960205766</t>
+          <t>+5516994467000</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5521991755401</t>
+          <t>+5512992001544</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+553597386826</t>
+          <t>+5511946375498</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5511980888856</t>
+          <t>+558899015765</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+558799459968</t>
+          <t>+5521988699714</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+556199822077</t>
+          <t>+5511948751419</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+558394013004</t>
+          <t>+5511954175426</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5511991077411</t>
+          <t>+5511912394391</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -2119,87 +2115,87 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5518997060153</t>
+          <t>+5519991812203</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5511970470574</t>
+          <t>+553186668589</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5519983112838</t>
+          <t>+5521977904994</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+554797176980</t>
+          <t>+5511960205766</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5511975879346</t>
+          <t>+5521991755401</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -2211,194 +2207,194 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+553597386826</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+556282998979</t>
+          <t>+5511980888856</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5521969914242</t>
+          <t>+558799459968</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+556199822077</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5511977538423</t>
+          <t>+558394013004</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+556194520205</t>
+          <t>+5511991077411</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5511947132973</t>
+          <t>+5518997060153</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+555193669200</t>
+          <t>+5511970470574</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5521997899616</t>
+          <t>+5519983112838</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5519997201600</t>
+          <t>+554797176980</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+553194006188</t>
+          <t>+5511975879346</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5521994172524</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
@@ -2415,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5512992372334</t>
+          <t>+556282998979</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2432,12 +2428,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5519989071084</t>
+          <t>+5521969914242</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2449,12 +2445,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+558491181674</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -2466,7 +2462,7 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5511994736173</t>
+          <t>+5511977538423</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -2483,177 +2479,177 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5521983285325</t>
+          <t>+556194520205</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+556195021826</t>
+          <t>+5511947132973</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5514991722226</t>
+          <t>+555193669200</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5511943271107</t>
+          <t>+5521997899616</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+553199028131</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+553194006188</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+555184576071</t>
+          <t>+5521994172524</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5521965979948</t>
+          <t>+5512992372334</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+556186533564</t>
+          <t>+5519989071084</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5511950609656</t>
+          <t>+558491181674</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5511967663538</t>
+          <t>+5511994736173</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -2663,31 +2659,31 @@
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+5521983285325</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+556182603325</t>
+          <t>+556195021826</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -2697,82 +2693,82 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5514991722226</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+5511943271107</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+553199028131</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+555184576071</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -2782,48 +2778,48 @@
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+5521965979948</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+556186533564</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+5511950609656</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
@@ -2833,14 +2829,14 @@
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -2850,167 +2846,167 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+556182603325</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -3020,291 +3016,291 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+556181190993</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+556181190993</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5521959003211</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -3316,92 +3312,92 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -3411,104 +3407,104 @@
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+5521959003211</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+553197154454</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -3520,12 +3516,12 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -3537,12 +3533,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -3554,12 +3550,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -3571,12 +3567,12 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
@@ -3588,12 +3584,12 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
@@ -3605,12 +3601,12 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
@@ -3622,12 +3618,12 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -3639,12 +3635,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -3656,12 +3652,12 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -3673,12 +3669,12 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
@@ -3690,12 +3686,12 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
@@ -3707,12 +3703,12 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
@@ -3724,41 +3720,41 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
@@ -3768,14 +3764,14 @@
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
@@ -3785,31 +3781,31 @@
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
@@ -3819,100 +3815,104 @@
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr"/>
+          <t>+5519999083111</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
@@ -3924,199 +3924,195 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr"/>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
@@ -4128,12 +4124,12 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
@@ -4145,12 +4141,12 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
@@ -4162,12 +4158,12 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
@@ -4179,12 +4175,12 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -4196,12 +4192,12 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
@@ -4213,12 +4209,12 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
@@ -4230,7 +4226,7 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
@@ -4247,7 +4243,7 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
@@ -4264,12 +4260,12 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -4281,109 +4277,109 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
@@ -4393,87 +4389,87 @@
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
@@ -4485,12 +4481,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -4502,12 +4498,12 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
@@ -4519,12 +4515,12 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
@@ -4536,12 +4532,12 @@
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
@@ -4553,12 +4549,12 @@
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
@@ -4570,12 +4566,12 @@
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
@@ -4587,12 +4583,12 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
@@ -4604,160 +4600,160 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
@@ -4767,320 +4763,320 @@
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5512991103006</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+5512991103006</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
@@ -5090,31 +5086,31 @@
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
@@ -5124,150 +5120,150 @@
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5511990011295</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
@@ -5277,65 +5273,65 @@
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
@@ -5345,31 +5341,31 @@
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
@@ -5379,65 +5375,65 @@
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5511990011295</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
@@ -5447,303 +5443,303 @@
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
@@ -5753,31 +5749,31 @@
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
@@ -5787,163 +5783,167 @@
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+555192716884</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+5515998598533</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B323" s="2" t="inlineStr"/>
+          <t>+5521965489343</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+5511947769013</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
@@ -5953,14 +5953,14 @@
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5511953499879</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
@@ -5970,14 +5970,14 @@
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
@@ -5987,22 +5987,205 @@
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
+          <t>+555192716884</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C327" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="inlineStr">
+        <is>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C328" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="inlineStr">
+        <is>
+          <t>+5511957562684</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C329" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="inlineStr">
+        <is>
+          <t>+5524999327754</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C330" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="inlineStr">
+        <is>
+          <t>+558699687586</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C331" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="inlineStr">
+        <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C332" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C333" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="inlineStr"/>
+      <c r="C334" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C335" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B336" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C336" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="inlineStr">
+        <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B337" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C337" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B327" s="2" t="inlineStr">
+      <c r="B338" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C327" s="2" t="inlineStr">
+      <c r="C338" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -494,12 +494,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5519971423096</t>
+          <t>+5521965847902</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -511,12 +511,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5521965847902</t>
+          <t>+5512981189051</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -528,14 +528,10 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5512981189051</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>+59891463058</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
           <t>2024-10-27</t>
@@ -545,10 +541,14 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+59891463058</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr"/>
+          <t>+5522988120988</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
           <t>2024-10-27</t>
@@ -558,12 +558,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5522988120988</t>
+          <t>+5515997545613</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -575,12 +575,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5515997545613</t>
+          <t>+5521983721028</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5521983721028</t>
+          <t>+5521970107283</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -609,12 +609,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5521995957477</t>
+          <t>+557996647242</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -626,12 +626,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5521970107283</t>
+          <t>+5517991357495</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -643,12 +643,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+557996647242</t>
+          <t>+5511993516472</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -660,63 +660,63 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5517991357495</t>
+          <t>+5516993092794</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+556194122877</t>
+          <t>+558888756112</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5511993516472</t>
+          <t>+5521976712324</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5516993092794</t>
+          <t>+5511996844009</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -728,63 +728,63 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+558888756112</t>
+          <t>+5511963924242</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5521976712324</t>
+          <t>+5519971680538</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5511996844009</t>
+          <t>+553892209509</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5519971680538</t>
+          <t>+553892268133</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+553892209509</t>
+          <t>+5511920075911</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -813,12 +813,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+553892268133</t>
+          <t>+5512988650307</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511920075911</t>
+          <t>+5521965498026</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -847,12 +847,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5512988650307</t>
+          <t>+556293667982</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+556199558235</t>
+          <t>+5519998638191</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -881,12 +881,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5521965498026</t>
+          <t>+5511965461757</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5518997653369</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -915,12 +915,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+556293667982</t>
+          <t>+5514981588270</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -932,12 +932,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+555198495080</t>
+          <t>+5521969509091</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -949,24 +949,24 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5519998638191</t>
+          <t>+553499652553</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511965461757</t>
+          <t>+5511948117520</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -976,48 +976,48 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5514981588270</t>
+          <t>+5521980137916</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5521969509091</t>
+          <t>+5516992621004</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+553499652553</t>
+          <t>+553491559844</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5511948117520</t>
+          <t>+553198253411</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1051,12 +1051,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5516992621004</t>
+          <t>+5511944883418</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+553491559844</t>
+          <t>+5518991568866</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1085,7 +1085,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+553198253411</t>
+          <t>+553196621053</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5511944883418</t>
+          <t>+5511983641384</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -1119,12 +1119,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5518991568866</t>
+          <t>+5519971058370</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1136,12 +1136,12 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+553196621053</t>
+          <t>+553888173806</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -1153,7 +1153,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5511983641384</t>
+          <t>+5511953300048</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1170,63 +1170,63 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5519971058370</t>
+          <t>+5511963499586</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+553888173806</t>
+          <t>+553192222396</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5511953300048</t>
+          <t>+557388375022</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5511963499586</t>
+          <t>+5515981337872</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+553192222396</t>
+          <t>+5521970591815</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1255,12 +1255,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5521968506908</t>
+          <t>+555584376758</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1272,12 +1272,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+557388375022</t>
+          <t>+5511948871594</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5515981337872</t>
+          <t>+5522988398546</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1306,12 +1306,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5521970591815</t>
+          <t>+5511989615168</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1323,12 +1323,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+555584376758</t>
+          <t>+5521985600431</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1340,12 +1340,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5511948871594</t>
+          <t>+557798544944</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1357,12 +1357,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5522988398546</t>
+          <t>+553196003962</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1374,12 +1374,12 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511989615168</t>
+          <t>+553491573143</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1391,80 +1391,80 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5521985600431</t>
+          <t>+5511992200087</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+557798544944</t>
+          <t>+5522997684436</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+553196003962</t>
+          <t>+5511919488174</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+553491573143</t>
+          <t>+553398405443</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5522997684436</t>
+          <t>+556199594992</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1476,12 +1476,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5511919488174</t>
+          <t>+555195130045</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1493,12 +1493,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+553398405443</t>
+          <t>+5511992475373</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1510,12 +1510,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+556199594992</t>
+          <t>+555182056614</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1527,12 +1527,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+555195130045</t>
+          <t>+555597004997</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1544,12 +1544,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5511992475373</t>
+          <t>+553496464470</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -1561,12 +1561,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+553192317871</t>
+          <t>+5515991360880</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -1578,12 +1578,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+555182056614</t>
+          <t>+5511933816759</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -1595,12 +1595,12 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+555597004997</t>
+          <t>+5521971980037</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1612,12 +1612,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+553496464470</t>
+          <t>+5511969671185</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1629,12 +1629,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5515991360880</t>
+          <t>+553284909728</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1646,12 +1646,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5511933816759</t>
+          <t>+5516994145282</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5521971980037</t>
+          <t>+5518996713803</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -1680,12 +1680,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5511969671185</t>
+          <t>+5519996918169</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1697,12 +1697,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+553284909728</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1714,12 +1714,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5516994145282</t>
+          <t>+5511933875895</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5518996713803</t>
+          <t>+553187205987</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -1748,12 +1748,12 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5519996918169</t>
+          <t>+5522981737925</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+556184978538</t>
+          <t>+553172591116</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -1782,12 +1782,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5511933875895</t>
+          <t>+5521972158401</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -1799,12 +1799,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+553187205987</t>
+          <t>+555591772721</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -1816,12 +1816,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5522981737925</t>
+          <t>+5511951699898</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+553172591116</t>
+          <t>+555499512062</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -1850,41 +1850,41 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5521972158401</t>
+          <t>+5515998417129</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+555591772721</t>
+          <t>+5511932857559</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511951699898</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -1894,36 +1894,36 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+555499512062</t>
+          <t>+5521990537643</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5515998417129</t>
+          <t>+5516994467000</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5511932857559</t>
+          <t>+5512992001544</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -1952,12 +1952,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+558899015765</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -1969,7 +1969,7 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5521990537643</t>
+          <t>+5521988699714</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5516994467000</t>
+          <t>+5511948751419</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,24 +2003,24 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5512992001544</t>
+          <t>+5511954175426</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5511946375498</t>
+          <t>+5511912394391</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -2030,65 +2030,65 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+558899015765</t>
+          <t>+5519991812203</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5521988699714</t>
+          <t>+553186668589</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511948751419</t>
+          <t>+5521977904994</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511954175426</t>
+          <t>+5511960205766</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -2105,97 +2105,97 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5511912394391</t>
+          <t>+5521991755401</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5519991812203</t>
+          <t>+553597386826</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+553186668589</t>
+          <t>+5511980888856</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5521977904994</t>
+          <t>+558799459968</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5511960205766</t>
+          <t>+556199822077</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5521991755401</t>
+          <t>+558394013004</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -2207,12 +2207,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+553597386826</t>
+          <t>+5511991077411</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2224,12 +2224,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5511980888856</t>
+          <t>+5518997060153</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2241,12 +2241,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+558799459968</t>
+          <t>+5511970470574</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+556199822077</t>
+          <t>+5519983112838</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2275,12 +2275,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+558394013004</t>
+          <t>+554797176980</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2292,7 +2292,7 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5511991077411</t>
+          <t>+5511975879346</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -2309,75 +2309,75 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5518997060153</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5511970470574</t>
+          <t>+556282998979</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5519983112838</t>
+          <t>+5521969914242</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+554797176980</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5511975879346</t>
+          <t>+5511977538423</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
@@ -2387,19 +2387,19 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+556194520205</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2411,12 +2411,12 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+556282998979</t>
+          <t>+5511947132973</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5521969914242</t>
+          <t>+555193669200</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
@@ -2445,12 +2445,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+5521997899616</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -2462,12 +2462,12 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5511977538423</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+556194520205</t>
+          <t>+553194006188</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -2496,12 +2496,12 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5511947132973</t>
+          <t>+5521994172524</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -2513,12 +2513,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+555193669200</t>
+          <t>+5512992372334</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5521997899616</t>
+          <t>+5519989071084</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -2547,12 +2547,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5519997201600</t>
+          <t>+558491181674</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -2564,12 +2564,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+553194006188</t>
+          <t>+5511994736173</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -2581,7 +2581,7 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5521994172524</t>
+          <t>+5521983285325</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -2591,87 +2591,87 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+5512992372334</t>
+          <t>+556195021826</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5519989071084</t>
+          <t>+5514991722226</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+558491181674</t>
+          <t>+5511943271107</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5511994736173</t>
+          <t>+553199028131</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5521983285325</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -2683,12 +2683,12 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+556195021826</t>
+          <t>+555184576071</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -2700,12 +2700,12 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5514991722226</t>
+          <t>+5521965979948</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -2717,12 +2717,12 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5511943271107</t>
+          <t>+556186533564</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
@@ -2734,12 +2734,12 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+553199028131</t>
+          <t>+5511950609656</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
@@ -2751,109 +2751,109 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+555184576071</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5521965979948</t>
+          <t>+556182603325</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+556186533564</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5511950609656</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511967663538</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -2863,31 +2863,31 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+556182603325</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -2897,82 +2897,82 @@
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -2989,12 +2989,12 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
@@ -3006,7 +3006,7 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -3016,48 +3016,48 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -3067,31 +3067,31 @@
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
@@ -3125,182 +3125,182 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+556181190993</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+556181190993</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -3312,12 +3312,12 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
@@ -3346,12 +3346,12 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
@@ -3363,12 +3363,12 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
@@ -3380,7 +3380,7 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+5521959003211</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
@@ -3397,12 +3397,12 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
@@ -3414,97 +3414,97 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5521959003211</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+553197154454</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
@@ -3533,12 +3533,12 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
@@ -3550,12 +3550,12 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
@@ -3584,12 +3584,12 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
@@ -3601,12 +3601,12 @@
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
@@ -3618,12 +3618,12 @@
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -3635,12 +3635,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -3652,12 +3652,12 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -3669,12 +3669,12 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
@@ -3686,12 +3686,12 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
@@ -3703,12 +3703,12 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
@@ -3720,12 +3720,12 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
@@ -3737,12 +3737,12 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
@@ -3754,12 +3754,12 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
@@ -3771,12 +3771,12 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
@@ -3788,12 +3788,12 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -3805,12 +3805,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -3822,58 +3822,58 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
@@ -3883,36 +3883,36 @@
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
@@ -3941,12 +3941,12 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
@@ -3958,12 +3958,12 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
@@ -3975,12 +3975,12 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -3992,14 +3992,10 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr"/>
       <c r="C209" s="2" t="inlineStr">
         <is>
           <t>2024-10-03</t>
@@ -4009,12 +4005,12 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
@@ -4026,93 +4022,97 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr"/>
+          <t>+553499003093</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
@@ -4124,12 +4124,12 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
@@ -4141,12 +4141,12 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
@@ -4158,12 +4158,12 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
@@ -4175,12 +4175,12 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -4192,7 +4192,7 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
@@ -4209,7 +4209,7 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
@@ -4226,12 +4226,12 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
@@ -4243,12 +4243,12 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
@@ -4260,12 +4260,12 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -4277,12 +4277,12 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -4294,12 +4294,12 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
@@ -4311,12 +4311,12 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
@@ -4328,12 +4328,12 @@
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
@@ -4345,12 +4345,12 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
@@ -4362,12 +4362,12 @@
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
@@ -4379,41 +4379,41 @@
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
@@ -4423,14 +4423,14 @@
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
@@ -4440,36 +4440,36 @@
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
@@ -4481,12 +4481,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -4498,7 +4498,7 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
@@ -4515,12 +4515,12 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
@@ -4532,12 +4532,12 @@
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
@@ -4549,12 +4549,12 @@
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
@@ -4566,12 +4566,12 @@
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
@@ -4583,7 +4583,7 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
@@ -4600,12 +4600,12 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
@@ -4617,12 +4617,12 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
@@ -4634,12 +4634,12 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
@@ -4651,7 +4651,7 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
@@ -4668,12 +4668,12 @@
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
@@ -4685,12 +4685,12 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -4702,160 +4702,160 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
@@ -4865,150 +4865,150 @@
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+5512991103006</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
@@ -5018,53 +5018,53 @@
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5512991103006</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
@@ -5076,12 +5076,12 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
@@ -5093,58 +5093,58 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
@@ -5154,70 +5154,70 @@
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
@@ -5229,12 +5229,12 @@
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
@@ -5246,24 +5246,24 @@
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
@@ -5290,48 +5290,48 @@
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5511990011295</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
@@ -5341,65 +5341,65 @@
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+5511990011295</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
@@ -5409,19 +5409,19 @@
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
@@ -5433,12 +5433,12 @@
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
@@ -5450,12 +5450,12 @@
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
@@ -5467,12 +5467,12 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
@@ -5484,41 +5484,41 @@
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
@@ -5535,46 +5535,46 @@
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
@@ -5586,12 +5586,12 @@
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
@@ -5603,12 +5603,12 @@
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
@@ -5620,7 +5620,7 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
@@ -5637,24 +5637,24 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
@@ -5664,70 +5664,70 @@
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
@@ -5739,12 +5739,12 @@
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
@@ -5756,29 +5756,29 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
@@ -5790,12 +5790,12 @@
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
@@ -5807,12 +5807,12 @@
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
@@ -5824,12 +5824,12 @@
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
@@ -5841,12 +5841,12 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
@@ -5858,12 +5858,12 @@
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+5515998598533</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
@@ -5875,12 +5875,12 @@
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
@@ -5892,7 +5892,7 @@
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
@@ -5909,29 +5909,29 @@
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511947769013</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
@@ -5943,7 +5943,7 @@
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C338"/>
+  <dimension ref="A1:C355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,105 +477,109 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+553184787803</t>
+          <t>+556492497661</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5521965847902</t>
+          <t>+558592116868</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5512981189051</t>
+          <t>+558288428449</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+59891463058</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr"/>
+          <t>+5511957390640</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5522988120988</t>
+          <t>+553190633071</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5515997545613</t>
+          <t>+5511934712805</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5521983721028</t>
+          <t>+5521976911685</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -585,36 +589,36 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5521970107283</t>
+          <t>+553184787803</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+557996647242</t>
+          <t>+5521965847902</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -626,12 +630,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5517991357495</t>
+          <t>+5512981189051</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -643,14 +647,10 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511993516472</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+59891463058</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
           <t>2024-10-27</t>
@@ -660,41 +660,41 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5516993092794</t>
+          <t>+5522988120988</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+558888756112</t>
+          <t>+5515997545613</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5521976712324</t>
+          <t>+5521983721028</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -704,14 +704,14 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5511996844009</t>
+          <t>+5511932408926</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -721,14 +721,14 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511963924242</t>
+          <t>+5511966568578</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -738,189 +738,189 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5519971680538</t>
+          <t>+5521970107283</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+553892209509</t>
+          <t>+5517991357495</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+553892268133</t>
+          <t>+5511993516472</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511920075911</t>
+          <t>+555195140432</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5512988650307</t>
+          <t>+5516993092794</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5521965498026</t>
+          <t>+558888756112</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+556293667982</t>
+          <t>+555481664496</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5519998638191</t>
+          <t>+5521976712324</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5511965461757</t>
+          <t>+553498757145</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5514996538302</t>
+          <t>+5511996844009</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5514981588270</t>
+          <t>+5511963924242</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -932,12 +932,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5521969509091</t>
+          <t>+5519971680538</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -949,216 +949,216 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+553499652553</t>
+          <t>+553892209509</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5511948117520</t>
+          <t>+553892268133</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5521980137916</t>
+          <t>+5511920075911</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5516992621004</t>
+          <t>+5512988650307</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+553491559844</t>
+          <t>+5521965498026</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+553198253411</t>
+          <t>+556293667982</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5511944883418</t>
+          <t>+5519998638191</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5518991568866</t>
+          <t>+5521974870034</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+553196621053</t>
+          <t>+5511965461757</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5511983641384</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5519971058370</t>
+          <t>+5514981588270</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+553888173806</t>
+          <t>+5521969509091</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5511953300048</t>
+          <t>+553499652553</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5511963499586</t>
+          <t>+5511948117520</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -1180,133 +1180,133 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+553192222396</t>
+          <t>+5521980137916</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+557388375022</t>
+          <t>+5516992621004</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5515981337872</t>
+          <t>+553491559844</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5521970591815</t>
+          <t>+553198253411</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+555584376758</t>
+          <t>+5511944883418</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5511948871594</t>
+          <t>+5518991568866</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5522988398546</t>
+          <t>+553196621053</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5511989615168</t>
+          <t>+5511983641384</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -1316,70 +1316,70 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5521985600431</t>
+          <t>+5519971058370</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+557798544944</t>
+          <t>+553888173806</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+553196003962</t>
+          <t>+5511953300048</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+553491573143</t>
+          <t>+5511963499586</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1391,216 +1391,216 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5511992200087</t>
+          <t>+553192222396</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5522997684436</t>
+          <t>+557388375022</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5511919488174</t>
+          <t>+5515981337872</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+553398405443</t>
+          <t>+5521970591815</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+556199594992</t>
+          <t>+555584376758</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+555195130045</t>
+          <t>+5511948871594</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5511992475373</t>
+          <t>+5522988398546</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+555182056614</t>
+          <t>+5511989615168</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+555597004997</t>
+          <t>+5521985600431</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+553496464470</t>
+          <t>+557798544944</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5515991360880</t>
+          <t>+553196003962</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5511933816759</t>
+          <t>+553491573143</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5521971980037</t>
+          <t>+5511992200087</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1612,12 +1612,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5511969671185</t>
+          <t>+5522997684436</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1629,12 +1629,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+553284909728</t>
+          <t>+5511919488174</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1646,12 +1646,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5516994145282</t>
+          <t>+553398405443</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5518996713803</t>
+          <t>+556199594992</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -1680,12 +1680,12 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+5519996918169</t>
+          <t>+555195130045</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
@@ -1697,12 +1697,12 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+556184978538</t>
+          <t>+5511992475373</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
@@ -1714,12 +1714,12 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5511933875895</t>
+          <t>+555182056614</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+553187205987</t>
+          <t>+555597004997</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -1748,12 +1748,12 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+5522981737925</t>
+          <t>+553496464470</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+553172591116</t>
+          <t>+5515991360880</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -1782,12 +1782,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5521972158401</t>
+          <t>+5511933816759</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -1799,12 +1799,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+555591772721</t>
+          <t>+5521971980037</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5511951699898</t>
+          <t>+5511969671185</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+555499512062</t>
+          <t>+553284909728</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -1850,177 +1850,177 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5515998417129</t>
+          <t>+5516994145282</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5511932857559</t>
+          <t>+5518996713803</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+5519996918169</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5521990537643</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5516994467000</t>
+          <t>+5511933875895</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5512992001544</t>
+          <t>+553187205987</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+558899015765</t>
+          <t>+5522981737925</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5521988699714</t>
+          <t>+553172591116</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5511948751419</t>
+          <t>+5521972158401</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+5511954175426</t>
+          <t>+555591772721</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5511912394391</t>
+          <t>+5511951699898</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -2030,65 +2030,65 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5519991812203</t>
+          <t>+555499512062</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+553186668589</t>
+          <t>+5515998417129</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5521977904994</t>
+          <t>+5511932857559</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511960205766</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -2098,14 +2098,14 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5521991755401</t>
+          <t>+5521990537643</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -2115,99 +2115,99 @@
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+553597386826</t>
+          <t>+5516994467000</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5511980888856</t>
+          <t>+5512992001544</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+558799459968</t>
+          <t>+558899015765</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+556199822077</t>
+          <t>+5521988699714</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+558394013004</t>
+          <t>+5511948751419</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5511991077411</t>
+          <t>+5511954175426</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
@@ -2217,82 +2217,82 @@
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5518997060153</t>
+          <t>+5511912394391</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5511970470574</t>
+          <t>+5519991812203</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5519983112838</t>
+          <t>+553186668589</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+554797176980</t>
+          <t>+5521977904994</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5511975879346</t>
+          <t>+5511960205766</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -2302,14 +2302,14 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+5521991755401</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -2319,99 +2319,99 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+556282998979</t>
+          <t>+553597386826</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5521969914242</t>
+          <t>+5511980888856</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+558799459968</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5511977538423</t>
+          <t>+556199822077</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+556194520205</t>
+          <t>+558394013004</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5511947132973</t>
+          <t>+5511991077411</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
@@ -2421,48 +2421,48 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+555193669200</t>
+          <t>+5518997060153</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5521997899616</t>
+          <t>+5511970470574</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5519997201600</t>
+          <t>+5519983112838</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -2472,53 +2472,53 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+553194006188</t>
+          <t>+554797176980</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5521994172524</t>
+          <t>+5511975879346</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5512992372334</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+5519989071084</t>
+          <t>+556282998979</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -2547,12 +2547,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+558491181674</t>
+          <t>+5521969914242</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -2564,12 +2564,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5511994736173</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -2581,24 +2581,24 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5521983285325</t>
+          <t>+5511977538423</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+556195021826</t>
+          <t>+556194520205</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -2608,99 +2608,99 @@
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5514991722226</t>
+          <t>+5511947132973</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+5511943271107</t>
+          <t>+555193669200</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+553199028131</t>
+          <t>+5521997899616</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+555184576071</t>
+          <t>+553194006188</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5521965979948</t>
+          <t>+5521994172524</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
@@ -2710,235 +2710,235 @@
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+556186533564</t>
+          <t>+5512992372334</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5511950609656</t>
+          <t>+5519989071084</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+5511967663538</t>
+          <t>+558491181674</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+5511994736173</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+556182603325</t>
+          <t>+5521983285325</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+556195021826</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+5514991722226</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+5511943271107</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+553199028131</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+555184576071</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5521965979948</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+556186533564</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+5511950609656</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -2948,65 +2948,65 @@
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+556182603325</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
@@ -3016,82 +3016,82 @@
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -3101,31 +3101,31 @@
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
@@ -3135,303 +3135,303 @@
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+556181190993</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+556181190993</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5521959003211</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
@@ -3441,31 +3441,31 @@
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
@@ -3475,155 +3475,155 @@
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5521959003211</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
@@ -3635,12 +3635,12 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -3652,12 +3652,12 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
@@ -3669,12 +3669,12 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
@@ -3686,12 +3686,12 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
@@ -3703,12 +3703,12 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
@@ -3720,12 +3720,12 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
@@ -3737,12 +3737,12 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
@@ -3754,12 +3754,12 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
@@ -3771,12 +3771,12 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
@@ -3788,12 +3788,12 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -3805,12 +3805,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -3822,58 +3822,58 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
@@ -3883,231 +3883,235 @@
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr"/>
+          <t>+5511982414540</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
@@ -4117,121 +4121,117 @@
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
-        </is>
-      </c>
-      <c r="B221" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr"/>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
@@ -4243,12 +4243,12 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
@@ -4260,12 +4260,12 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -4277,12 +4277,12 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -4294,12 +4294,12 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
@@ -4311,12 +4311,12 @@
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
@@ -4328,7 +4328,7 @@
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -4345,7 +4345,7 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -4362,12 +4362,12 @@
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
@@ -4379,41 +4379,41 @@
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
@@ -4423,172 +4423,172 @@
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
@@ -4600,12 +4600,12 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
@@ -4617,12 +4617,12 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
@@ -4634,12 +4634,12 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
@@ -4651,12 +4651,12 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
@@ -4668,7 +4668,7 @@
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
@@ -4685,12 +4685,12 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -4702,160 +4702,160 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
@@ -4865,14 +4865,14 @@
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
@@ -4882,218 +4882,218 @@
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+5512991103006</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
@@ -5103,116 +5103,116 @@
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+5512991103006</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
@@ -5222,14 +5222,14 @@
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
@@ -5239,31 +5239,31 @@
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
@@ -5273,65 +5273,65 @@
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5511990011295</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
@@ -5341,184 +5341,184 @@
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
@@ -5528,116 +5528,116 @@
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5511990011295</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
@@ -5647,14 +5647,14 @@
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
@@ -5664,14 +5664,14 @@
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
@@ -5681,82 +5681,82 @@
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
@@ -5766,150 +5766,150 @@
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
@@ -5919,65 +5919,65 @@
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+5519999351093</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
@@ -5987,180 +5987,184 @@
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>+555192716884</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B334" s="2" t="inlineStr"/>
+          <t>+5515998598533</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="C334" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B337" s="2" t="inlineStr">
@@ -6170,22 +6174,307 @@
       </c>
       <c r="C337" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
+          <t>+5511947769013</t>
+        </is>
+      </c>
+      <c r="B338" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C338" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="inlineStr">
+        <is>
+          <t>+554497202222</t>
+        </is>
+      </c>
+      <c r="B339" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C339" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="inlineStr">
+        <is>
+          <t>+5511947261969</t>
+        </is>
+      </c>
+      <c r="B340" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C340" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="inlineStr">
+        <is>
+          <t>+5511953499879</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C341" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="inlineStr">
+        <is>
+          <t>+5521997432262</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C342" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="inlineStr">
+        <is>
+          <t>+555192716884</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="inlineStr">
+        <is>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="inlineStr">
+        <is>
+          <t>+5511957562684</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C345" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="inlineStr">
+        <is>
+          <t>+5524999327754</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C346" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="inlineStr">
+        <is>
+          <t>+553182145545</t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C347" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="inlineStr">
+        <is>
+          <t>+558699687586</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C348" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="inlineStr">
+        <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C349" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C350" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="inlineStr"/>
+      <c r="C351" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B352" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C352" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B353" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C353" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="inlineStr">
+        <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B354" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C354" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B338" s="2" t="inlineStr">
+      <c r="B355" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C338" s="2" t="inlineStr">
+      <c r="C355" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C355"/>
+  <dimension ref="A1:C371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,97 +477,97 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+556492497661</t>
+          <t>+5516992561445</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+558592116868</t>
+          <t>+5514997883211</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+558288428449</t>
+          <t>+5515988044745</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5511957390640</t>
+          <t>+5521985096467</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+553190633071</t>
+          <t>+5521966146169</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511934712805</t>
+          <t>+5516993430394</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -579,12 +579,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5521976911685</t>
+          <t>+553484202694</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,139 +596,143 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+553184787803</t>
+          <t>+5511979673316</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5521965847902</t>
+          <t>+553189442717</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5512981189051</t>
+          <t>+5511945736910</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+59891463058</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr"/>
+          <t>+553198877847</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5522988120988</t>
+          <t>+553198285644</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5515997545613</t>
+          <t>+5521980127885</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5521983721028</t>
+          <t>+558597991267</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5511932408926</t>
+          <t>+5521981977464</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511966568578</t>
+          <t>+5511999925612</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -738,252 +742,248 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5521970107283</t>
+          <t>+559191764533</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5517991357495</t>
+          <t>+558592116868</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5511993516472</t>
+          <t>+558288428449</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+555195140432</t>
+          <t>+5511957390640</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5516993092794</t>
+          <t>+553190633071</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+558888756112</t>
+          <t>+5511934712805</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+555481664496</t>
+          <t>+5521976911685</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+5521976712324</t>
+          <t>+553184787803</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-28</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+553498757145</t>
+          <t>+5521965847902</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5511996844009</t>
+          <t>+5512981189051</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5511963924242</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+59891463058</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5519971680538</t>
+          <t>+5522988120988</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+553892209509</t>
+          <t>+5515997545613</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+553892268133</t>
+          <t>+5521983721028</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511920075911</t>
+          <t>+5511932408926</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -993,31 +993,31 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5512988650307</t>
+          <t>+5511966568578</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5521965498026</t>
+          <t>+5521970107283</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1027,116 +1027,116 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+556293667982</t>
+          <t>+5517991357495</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5519998638191</t>
+          <t>+5511993516472</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5521974870034</t>
+          <t>+555195140432</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5511965461757</t>
+          <t>+5516993092794</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+5514996538302</t>
+          <t>+558888756112</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5514981588270</t>
+          <t>+555481664496</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5521969509091</t>
+          <t>+5521976712324</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -1146,14 +1146,14 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+553499652553</t>
+          <t>+553498757145</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1163,14 +1163,14 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5511948117520</t>
+          <t>+5511996844009</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -1180,201 +1180,201 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5521980137916</t>
+          <t>+5513997184863</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5516992621004</t>
+          <t>+5511963924242</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+553491559844</t>
+          <t>+5519971680538</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+553198253411</t>
+          <t>+553892209509</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+5511944883418</t>
+          <t>+553892268133</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5518991568866</t>
+          <t>+5511920075911</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+553196621053</t>
+          <t>+5512988650307</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5511983641384</t>
+          <t>+5521965498026</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+5519971058370</t>
+          <t>+556293667982</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+553888173806</t>
+          <t>+5519998638191</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5511953300048</t>
+          <t>+5521974870034</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511963499586</t>
+          <t>+5511965461757</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -1384,218 +1384,218 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+553192222396</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+557388375022</t>
+          <t>+5514981588270</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5515981337872</t>
+          <t>+5521969509091</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5521970591815</t>
+          <t>+553499652553</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+555584376758</t>
+          <t>+5511948117520</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5511948871594</t>
+          <t>+5521980137916</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5522988398546</t>
+          <t>+5516992621004</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5511989615168</t>
+          <t>+553491559844</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5521985600431</t>
+          <t>+553198253411</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+557798544944</t>
+          <t>+5511944883418</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+553196003962</t>
+          <t>+5518991568866</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+553491573143</t>
+          <t>+553196621053</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5511992200087</t>
+          <t>+5511983641384</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -1605,184 +1605,184 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5522997684436</t>
+          <t>+5519971058370</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5511919488174</t>
+          <t>+553888173806</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+553398405443</t>
+          <t>+5511953300048</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+556199594992</t>
+          <t>+5511963499586</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+555195130045</t>
+          <t>+553192222396</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+5511992475373</t>
+          <t>+557388375022</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+555182056614</t>
+          <t>+5515981337872</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+555597004997</t>
+          <t>+5521970591815</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+553496464470</t>
+          <t>+555584376758</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5515991360880</t>
+          <t>+5511948871594</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5511933816759</t>
+          <t>+5511989615168</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -1792,14 +1792,14 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5521971980037</t>
+          <t>+5521985600431</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -1809,70 +1809,70 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5511969671185</t>
+          <t>+557798544944</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+553284909728</t>
+          <t>+553196003962</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+5516994145282</t>
+          <t>+553491573143</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5518996713803</t>
+          <t>+5511992200087</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5519996918169</t>
+          <t>+5522997684436</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+556184978538</t>
+          <t>+5511919488174</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -1918,12 +1918,12 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+5511933875895</t>
+          <t>+553398405443</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
@@ -1935,12 +1935,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+553187205987</t>
+          <t>+556199594992</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -1952,12 +1952,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5522981737925</t>
+          <t>+555195130045</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
@@ -1969,12 +1969,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+553172591116</t>
+          <t>+5511992475373</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -1986,12 +1986,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+5521972158401</t>
+          <t>+555182056614</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2003,7 +2003,7 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+555591772721</t>
+          <t>+555597004997</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+5511951699898</t>
+          <t>+553496464470</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2037,12 +2037,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+555499512062</t>
+          <t>+5515991360880</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,41 +2054,41 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5515998417129</t>
+          <t>+5511933816759</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511932857559</t>
+          <t>+5521971980037</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+5511969671185</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -2098,31 +2098,31 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+5521990537643</t>
+          <t>+553284909728</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5516994467000</t>
+          <t>+5516994145282</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -2132,65 +2132,65 @@
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5512992001544</t>
+          <t>+5518996713803</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+558899015765</t>
+          <t>+5519996918169</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+5521988699714</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5511948751419</t>
+          <t>+5511933875895</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
@@ -2200,99 +2200,99 @@
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+5511954175426</t>
+          <t>+553187205987</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5511912394391</t>
+          <t>+5522981737925</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+5519991812203</t>
+          <t>+553172591116</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+553186668589</t>
+          <t>+5521972158401</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+5521977904994</t>
+          <t>+555591772721</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5511960205766</t>
+          <t>+5511951699898</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
@@ -2302,48 +2302,48 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+5521991755401</t>
+          <t>+555499512062</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+553597386826</t>
+          <t>+5515998417129</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5511980888856</t>
+          <t>+5511932857559</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
@@ -2353,150 +2353,150 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+558799459968</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+556199822077</t>
+          <t>+5521990537643</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+558394013004</t>
+          <t>+5516994467000</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5511991077411</t>
+          <t>+5512992001544</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+5518997060153</t>
+          <t>+558899015765</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5511970470574</t>
+          <t>+5521988699714</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5519983112838</t>
+          <t>+5511948751419</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+554797176980</t>
+          <t>+5511954175426</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5511975879346</t>
+          <t>+5511912394391</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -2506,48 +2506,48 @@
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+5519991812203</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+556282998979</t>
+          <t>+553186668589</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5521969914242</t>
+          <t>+5521977904994</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -2557,65 +2557,65 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+5511960205766</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5511977538423</t>
+          <t>+5521991755401</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+556194520205</t>
+          <t>+553597386826</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5511947132973</t>
+          <t>+5511980888856</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -2625,116 +2625,116 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+555193669200</t>
+          <t>+558799459968</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+5521997899616</t>
+          <t>+556199822077</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+5519997201600</t>
+          <t>+558394013004</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+553194006188</t>
+          <t>+5511991077411</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5521994172524</t>
+          <t>+5518997060153</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5512992372334</t>
+          <t>+5511970470574</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5519989071084</t>
+          <t>+5519983112838</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
@@ -2744,31 +2744,31 @@
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+558491181674</t>
+          <t>+554797176980</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5511994736173</t>
+          <t>+5511975879346</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -2778,14 +2778,14 @@
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5521983285325</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -2795,422 +2795,422 @@
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+556195021826</t>
+          <t>+556282998979</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5514991722226</t>
+          <t>+5521969914242</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5511943271107</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+553199028131</t>
+          <t>+5511977538423</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+556194520205</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+555184576071</t>
+          <t>+5511947132973</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+5521965979948</t>
+          <t>+555193669200</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+556186533564</t>
+          <t>+5521997899616</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5511950609656</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+5511967663538</t>
+          <t>+553194006188</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+5521994172524</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+556182603325</t>
+          <t>+5512992372334</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5519989071084</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+558491181674</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+5511994736173</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+5521983285325</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+556195021826</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+5514991722226</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5511943271107</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+553199028131</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+555184576071</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+5521965979948</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+556186533564</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+5511950609656</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -3220,682 +3220,682 @@
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+556182603325</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+556181190993</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5521959003211</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+556181190993</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+5521959003211</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
@@ -3907,12 +3907,12 @@
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
@@ -3924,7 +3924,7 @@
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
@@ -3941,12 +3941,12 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
@@ -3958,7 +3958,7 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
@@ -3975,12 +3975,12 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -3992,12 +3992,12 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
@@ -4009,12 +4009,12 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
@@ -4026,309 +4026,313 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B221" s="2" t="inlineStr"/>
+          <t>+5511991319171</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+5515991165537</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -4338,14 +4342,14 @@
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
@@ -4355,155 +4359,151 @@
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
-        </is>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="inlineStr"/>
       <c r="C237" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
@@ -4515,12 +4515,12 @@
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
@@ -4532,12 +4532,12 @@
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
@@ -4549,12 +4549,12 @@
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
@@ -4566,12 +4566,12 @@
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
@@ -4583,41 +4583,41 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
@@ -4627,14 +4627,14 @@
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
@@ -4644,48 +4644,48 @@
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
@@ -4695,116 +4695,116 @@
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
@@ -4814,53 +4814,53 @@
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
@@ -4872,12 +4872,12 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
@@ -4889,12 +4889,12 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
@@ -4906,12 +4906,12 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
@@ -4923,58 +4923,58 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
@@ -4984,31 +4984,31 @@
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
@@ -5018,405 +5018,405 @@
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+5512991103006</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
@@ -5426,14 +5426,14 @@
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
@@ -5443,99 +5443,99 @@
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+5512991103006</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
@@ -5545,184 +5545,184 @@
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+5511990011295</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
@@ -5732,99 +5732,99 @@
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+5511990011295</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
@@ -5834,422 +5834,422 @@
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+5519999351093</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C337" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+5519999351093</t>
         </is>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
@@ -6259,222 +6259,494 @@
       </c>
       <c r="C342" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="inlineStr">
         <is>
-          <t>+555192716884</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="inlineStr">
         <is>
-          <t>+553182145545</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B347" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C347" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C348" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B349" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C349" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5515998598533</t>
         </is>
       </c>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C350" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B351" s="2" t="inlineStr"/>
+          <t>+555185474443</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="C351" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C352" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+5511947769013</t>
         </is>
       </c>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C354" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="inlineStr">
         <is>
+          <t>+554497202222</t>
+        </is>
+      </c>
+      <c r="B355" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C355" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="inlineStr">
+        <is>
+          <t>+5511947261969</t>
+        </is>
+      </c>
+      <c r="B356" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C356" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="inlineStr">
+        <is>
+          <t>+5511953499879</t>
+        </is>
+      </c>
+      <c r="B357" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C357" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="inlineStr">
+        <is>
+          <t>+5521997432262</t>
+        </is>
+      </c>
+      <c r="B358" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C358" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="inlineStr">
+        <is>
+          <t>+555192716884</t>
+        </is>
+      </c>
+      <c r="B359" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="C359" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="inlineStr">
+        <is>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B360" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C360" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="inlineStr">
+        <is>
+          <t>+5511957562684</t>
+        </is>
+      </c>
+      <c r="B361" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C361" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="inlineStr">
+        <is>
+          <t>+5524999327754</t>
+        </is>
+      </c>
+      <c r="B362" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C362" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="inlineStr">
+        <is>
+          <t>+553182145545</t>
+        </is>
+      </c>
+      <c r="B363" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C363" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="inlineStr">
+        <is>
+          <t>+558699687586</t>
+        </is>
+      </c>
+      <c r="B364" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C364" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="inlineStr">
+        <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B365" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C365" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C366" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B367" s="2" t="inlineStr"/>
+      <c r="C367" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B368" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C368" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C369" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="inlineStr">
+        <is>
+          <t>+5521965197022</t>
+        </is>
+      </c>
+      <c r="B370" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C370" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B355" s="2" t="inlineStr">
+      <c r="B371" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C355" s="2" t="inlineStr">
+      <c r="C371" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C371"/>
+  <dimension ref="A1:C380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,29 +477,29 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5516992561445</t>
+          <t>+5511973555904</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5514997883211</t>
+          <t>+5511986325146</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -511,12 +511,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5515988044745</t>
+          <t>+553799442087</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -528,12 +528,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5521985096467</t>
+          <t>+5516992760069</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5521966146169</t>
+          <t>+5524974006835</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -562,233 +562,233 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5516993430394</t>
+          <t>+5511950286646</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+553484202694</t>
+          <t>+5511934765228</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511979673316</t>
+          <t>+553399157420</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+553189442717</t>
+          <t>+5521988594132</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511945736910</t>
+          <t>+5514981475077</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+553198877847</t>
+          <t>+5511963155510</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+553198285644</t>
+          <t>+5514997883211</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5521980127885</t>
+          <t>+5515988044745</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+558597991267</t>
+          <t>+5521985096467</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+5521981977464</t>
+          <t>+558591790588</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5511999925612</t>
+          <t>+5521970051457</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+559191764533</t>
+          <t>+5521966146169</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+558592116868</t>
+          <t>+5521970658763</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+558288428449</t>
+          <t>+5516993430394</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -800,12 +800,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+5511957390640</t>
+          <t>+553484202694</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+553190633071</t>
+          <t>+5511979673316</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -834,12 +834,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+5511934712805</t>
+          <t>+553189442717</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -851,12 +851,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5521976911685</t>
+          <t>+5511945736910</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+553184787803</t>
+          <t>+553198877847</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -878,14 +878,14 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5521965847902</t>
+          <t>+5521980127885</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -895,95 +895,99 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+5512981189051</t>
+          <t>+558597991267</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+59891463058</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr"/>
+          <t>+5521981977464</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+5522988120988</t>
+          <t>+559191764533</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+5515997545613</t>
+          <t>+558592116868</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+5521983721028</t>
+          <t>+558288428449</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511932408926</t>
+          <t>+5511957390640</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -993,184 +997,180 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+5511966568578</t>
+          <t>+553190633071</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5521970107283</t>
+          <t>+5511934712805</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5517991357495</t>
+          <t>+5521976911685</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+5511993516472</t>
+          <t>+553184787803</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+555195140432</t>
+          <t>+5521965847902</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5516993092794</t>
+          <t>+5512981189051</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+558888756112</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
+          <t>+59891463058</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+555481664496</t>
+          <t>+5522988120988</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5521976712324</t>
+          <t>+5515997545613</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+553498757145</t>
+          <t>+5521983721028</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5511996844009</t>
+          <t>+5511932408926</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -1180,133 +1180,133 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5513997184863</t>
+          <t>+5511966568578</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5511963924242</t>
+          <t>+5521970107283</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5519971680538</t>
+          <t>+5517991357495</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+553892209509</t>
+          <t>+5511993516472</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-27</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+553892268133</t>
+          <t>+555195140432</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5511920075911</t>
+          <t>+5516993092794</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+5512988650307</t>
+          <t>+558888756112</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5521965498026</t>
+          <t>+5521976712324</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -1316,53 +1316,53 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+556293667982</t>
+          <t>+553498757145</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5519998638191</t>
+          <t>+5511996844009</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-26</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5521974870034</t>
+          <t>+5513997184863</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1374,7 +1374,7 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511965461757</t>
+          <t>+5511963924242</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
@@ -1391,12 +1391,12 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5514996538302</t>
+          <t>+5519971680538</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1408,12 +1408,12 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+5514981588270</t>
+          <t>+553892209509</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+5521969509091</t>
+          <t>+553892268133</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1442,41 +1442,41 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+553499652553</t>
+          <t>+5511920075911</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5511948117520</t>
+          <t>+5512988650307</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5521980137916</t>
+          <t>+5521965498026</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -1486,65 +1486,65 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+5516992621004</t>
+          <t>+556293667982</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+553491559844</t>
+          <t>+5519998638191</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+553198253411</t>
+          <t>+5521974870034</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5511944883418</t>
+          <t>+5511965461757</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -1554,70 +1554,70 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5518991568866</t>
+          <t>+5514996538302</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+553196621053</t>
+          <t>+5514981588270</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5511983641384</t>
+          <t>+5521969509091</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-25</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+5519971058370</t>
+          <t>+553499652553</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1629,12 +1629,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+553888173806</t>
+          <t>+5511948117520</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1646,12 +1646,12 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5511953300048</t>
+          <t>+5521980137916</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
@@ -1663,109 +1663,109 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5511963499586</t>
+          <t>+5516992621004</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+553192222396</t>
+          <t>+553491559844</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+557388375022</t>
+          <t>+553198253411</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5515981337872</t>
+          <t>+5511944883418</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5521970591815</t>
+          <t>+5518991568866</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+555584376758</t>
+          <t>+553196621053</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5511948871594</t>
+          <t>+5511983641384</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -1775,70 +1775,70 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5511989615168</t>
+          <t>+5519971058370</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+5521985600431</t>
+          <t>+553888173806</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+557798544944</t>
+          <t>+5511953300048</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-24</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+553196003962</t>
+          <t>+5511963499586</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -1850,12 +1850,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+553491573143</t>
+          <t>+553192222396</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -1867,160 +1867,160 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+5511992200087</t>
+          <t>+557388375022</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5522997684436</t>
+          <t>+5515981337872</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5511919488174</t>
+          <t>+5521970591815</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+553398405443</t>
+          <t>+555584376758</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+556199594992</t>
+          <t>+5511948871594</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+555195130045</t>
+          <t>+5511989615168</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5511992475373</t>
+          <t>+5521985600431</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+555182056614</t>
+          <t>+557798544944</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+555597004997</t>
+          <t>+553196003962</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+553496464470</t>
+          <t>+553491573143</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -2030,19 +2030,19 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-23</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5515991360880</t>
+          <t>+5511992200087</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5511933816759</t>
+          <t>+5522997684436</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5521971980037</t>
+          <t>+5511919488174</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>+5511969671185</t>
+          <t>+553398405443</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
@@ -2105,12 +2105,12 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>+553284909728</t>
+          <t>+556199594992</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>+5516994145282</t>
+          <t>+555195130045</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2139,12 +2139,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>+5518996713803</t>
+          <t>+5511992475373</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2156,12 +2156,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>+5519996918169</t>
+          <t>+555182056614</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -2173,12 +2173,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>+556184978538</t>
+          <t>+555597004997</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -2190,12 +2190,12 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>+5511933875895</t>
+          <t>+553496464470</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -2207,12 +2207,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>+553187205987</t>
+          <t>+5515991360880</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -2224,12 +2224,12 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>+5522981737925</t>
+          <t>+5511933816759</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
@@ -2241,12 +2241,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>+553172591116</t>
+          <t>+5521971980037</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>+5521972158401</t>
+          <t>+5511969671185</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2275,12 +2275,12 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>+555591772721</t>
+          <t>+553284909728</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>+5511951699898</t>
+          <t>+5516994145282</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
@@ -2309,12 +2309,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>+555499512062</t>
+          <t>+5518996713803</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -2326,41 +2326,41 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>+5515998417129</t>
+          <t>+5519996918169</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>+5511932857559</t>
+          <t>+556184978538</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>+5511964652979</t>
+          <t>+5511933875895</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -2370,99 +2370,99 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>+5521990537643</t>
+          <t>+553187205987</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>+5516994467000</t>
+          <t>+5522981737925</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>+5512992001544</t>
+          <t>+553172591116</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>+558899015765</t>
+          <t>+5521972158401</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>+5521988699714</t>
+          <t>+555591772721</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>+5511948751419</t>
+          <t>+5511951699898</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -2472,82 +2472,82 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>+5511954175426</t>
+          <t>+555499512062</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>+5511912394391</t>
+          <t>+5515998417129</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>+5519991812203</t>
+          <t>+5511932857559</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>+553186668589</t>
+          <t>+5511964652979</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>+5521977904994</t>
+          <t>+5521990537643</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
@@ -2557,206 +2557,206 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>+5511960205766</t>
+          <t>+5516994467000</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>+5521991755401</t>
+          <t>+5512992001544</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>+553597386826</t>
+          <t>+558899015765</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>+5511980888856</t>
+          <t>+5521988699714</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>+558799459968</t>
+          <t>+5511948751419</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-21</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>+556199822077</t>
+          <t>+5511954175426</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>+558394013004</t>
+          <t>+5511912394391</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>+5511991077411</t>
+          <t>+5519991812203</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>+5518997060153</t>
+          <t>+553186668589</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>+5511970470574</t>
+          <t>+5521977904994</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>+5519983112838</t>
+          <t>+5511960205766</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-20</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>+554797176980</t>
+          <t>+5521991755401</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
@@ -2768,12 +2768,12 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>+5511975879346</t>
+          <t>+553597386826</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -2785,75 +2785,75 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>+5521964219027</t>
+          <t>+5511980888856</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>+556282998979</t>
+          <t>+558799459968</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>+5521969914242</t>
+          <t>+556199822077</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>+5513997050892</t>
+          <t>+558394013004</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>+5511977538423</t>
+          <t>+5511991077411</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
@@ -2863,31 +2863,31 @@
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>+556194520205</t>
+          <t>+5518997060153</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>+5511947132973</t>
+          <t>+5511970470574</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
@@ -2897,70 +2897,70 @@
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>+555193669200</t>
+          <t>+5519983112838</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>+5521997899616</t>
+          <t>+554797176980</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>+5519997201600</t>
+          <t>+5511975879346</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-19</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>+553194006188</t>
+          <t>+5521964219027</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -2972,12 +2972,12 @@
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>+5521994172524</t>
+          <t>+556282998979</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
@@ -2989,12 +2989,12 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>+5512992372334</t>
+          <t>+5521969914242</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
@@ -3006,12 +3006,12 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>+5519989071084</t>
+          <t>+5513997050892</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
@@ -3023,12 +3023,12 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>+558491181674</t>
+          <t>+5511977538423</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
@@ -3040,12 +3040,12 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>+5511994736173</t>
+          <t>+556194520205</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
@@ -3057,75 +3057,75 @@
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>+5521983285325</t>
+          <t>+5511947132973</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>+556195021826</t>
+          <t>+555193669200</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>+5514991722226</t>
+          <t>+5521997899616</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>+5511943271107</t>
+          <t>+5519997201600</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>+553199028131</t>
+          <t>+553194006188</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
@@ -3135,82 +3135,82 @@
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>+5517991290893</t>
+          <t>+5521994172524</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>+555184576071</t>
+          <t>+5512992372334</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>+5521965979948</t>
+          <t>+5519989071084</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>+556186533564</t>
+          <t>+558491181674</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>+5511950609656</t>
+          <t>+5511994736173</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
@@ -3220,65 +3220,65 @@
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-18</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>+5511967663538</t>
+          <t>+5521983285325</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>+5516999928423</t>
+          <t>+556195021826</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>+556182603325</t>
+          <t>+5514991722226</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>+5511975292030</t>
+          <t>+5511943271107</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
@@ -3288,116 +3288,116 @@
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>+553491814035</t>
+          <t>+553199028131</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>+556392880287</t>
+          <t>+5517991290893</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>+5516996469888</t>
+          <t>+555184576071</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>+555199199744</t>
+          <t>+5521965979948</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>+5511958531213</t>
+          <t>+556186533564</t>
         </is>
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>+5515996313442</t>
+          <t>+5511950609656</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-17</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>+5511932206144</t>
+          <t>+5511967663538</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
@@ -3407,48 +3407,48 @@
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>+5511911469526</t>
+          <t>+5516999928423</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="inlineStr">
         <is>
-          <t>+5517997059008</t>
+          <t>+556182603325</t>
         </is>
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-15</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="inlineStr">
         <is>
-          <t>+5511933478819</t>
+          <t>+5511975292030</t>
         </is>
       </c>
       <c r="B177" s="2" t="inlineStr">
@@ -3458,65 +3458,65 @@
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>+5519982234042</t>
+          <t>+553491814035</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2024-10-14</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>+5511960304758</t>
+          <t>+556392880287</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>+553182430583</t>
+          <t>+5516996469888</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>+555181117027</t>
+          <t>+555199199744</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
@@ -3526,14 +3526,14 @@
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-10</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>+5511974585735</t>
+          <t>+5511958531213</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
@@ -3543,31 +3543,31 @@
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>+5516991966214</t>
+          <t>+5515996313442</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>+5511981050835</t>
+          <t>+5511932206144</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
@@ -3577,14 +3577,14 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>+5511958383006</t>
+          <t>+5511911469526</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
@@ -3594,82 +3594,82 @@
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>+5511981996340</t>
+          <t>+5517997059008</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>+556181190993</t>
+          <t>+5511933478819</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>+553492761076</t>
+          <t>+5519982234042</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-09</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>+556199265951</t>
+          <t>+5511960304758</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>+553173073063</t>
+          <t>+553182430583</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
@@ -3679,14 +3679,14 @@
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>+555198100093</t>
+          <t>+555181117027</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
@@ -3696,14 +3696,14 @@
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>2024-10-06</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>+5511987188938</t>
+          <t>+5511974585735</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
@@ -3713,172 +3713,172 @@
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>+553185536297</t>
+          <t>+5516991966214</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>+5522981222545</t>
+          <t>+5511981050835</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>+556293840325</t>
+          <t>+5511958383006</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-08</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>+553888365681</t>
+          <t>+5511981996340</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>+5521999745670</t>
+          <t>+556181190993</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>+5521970445070</t>
+          <t>+553492761076</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>+5521980402675</t>
+          <t>+556199265951</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-07</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>+5521971813804</t>
+          <t>+553173073063</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>+5521959003211</t>
+          <t>+555198100093</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>2024-10-05</t>
+          <t>2024-10-06</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>+5512991122882</t>
+          <t>+5511987188938</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
@@ -3890,92 +3890,92 @@
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>+5519993500517</t>
+          <t>+553185536297</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>+5511986370559</t>
+          <t>+5522981222545</t>
         </is>
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>+5511948401846</t>
+          <t>+556293840325</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>+5522997969525</t>
+          <t>+553888365681</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>+5512982597748</t>
+          <t>+5521999745670</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>+5521971208427</t>
+          <t>+5521970445070</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
@@ -3985,87 +3985,87 @@
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>+555591738555</t>
+          <t>+5521980402675</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>+553791176954</t>
+          <t>+5521971813804</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>+5511958936683</t>
+          <t>+5521959003211</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>+5516993020307</t>
+          <t>+5512991122882</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-05</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>+555491557534</t>
+          <t>+5519993500517</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
@@ -4077,12 +4077,12 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>+553399591599</t>
+          <t>+5511986370559</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
@@ -4094,12 +4094,12 @@
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>+553399189627</t>
+          <t>+5511948401846</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
@@ -4111,12 +4111,12 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>+555185146675</t>
+          <t>+5522997969525</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
@@ -4128,12 +4128,12 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>+5517991354967</t>
+          <t>+5512982597748</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
@@ -4145,12 +4145,12 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>+5511951777030</t>
+          <t>+5521971208427</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
@@ -4162,12 +4162,12 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>+5511984170030</t>
+          <t>+555591738555</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
@@ -4179,12 +4179,12 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>+553599103591</t>
+          <t>+553791176954</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -4196,7 +4196,7 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>+5511991319171</t>
+          <t>+5511958936683</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
@@ -4213,12 +4213,12 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>+555194987657</t>
+          <t>+5516993020307</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
@@ -4230,12 +4230,12 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>+5512992150616</t>
+          <t>+555491557534</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
@@ -4247,12 +4247,12 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>+553799750058</t>
+          <t>+553399591599</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
@@ -4264,12 +4264,12 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>+5511982414540</t>
+          <t>+553399189627</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
@@ -4281,12 +4281,12 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>+5519999083111</t>
+          <t>+555185146675</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
@@ -4298,41 +4298,41 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>+5515991165537</t>
+          <t>+5517991354967</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="inlineStr">
         <is>
-          <t>+553499024795</t>
+          <t>+5511951777030</t>
         </is>
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>+5511981334712</t>
+          <t>+5511984170030</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
@@ -4342,136 +4342,140 @@
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>+5511941407287</t>
+          <t>+553599103591</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>+5512981058518</t>
+          <t>+5511991319171</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>+5511999001717</t>
+          <t>+555194987657</t>
         </is>
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>+556292038549</t>
+          <t>+5512992150616</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>+556191138143</t>
+          <t>+553799750058</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>+557599264956</t>
+          <t>+5511982414540</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>+555189187936</t>
+          <t>+5519999083111</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-04</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">
         <is>
-          <t>+5358479860</t>
-        </is>
-      </c>
-      <c r="B237" s="2" t="inlineStr"/>
+          <t>+5515991165537</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="C237" s="2" t="inlineStr">
         <is>
           <t>2024-10-03</t>
@@ -4481,12 +4485,12 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>+5521985977255</t>
+          <t>+553499024795</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
@@ -4498,182 +4502,178 @@
     <row r="239">
       <c r="A239" s="2" t="inlineStr">
         <is>
-          <t>+553196084210</t>
+          <t>+5511981334712</t>
         </is>
       </c>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="inlineStr">
         <is>
-          <t>+5521999549660</t>
+          <t>+5511941407287</t>
         </is>
       </c>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>+5519987126067</t>
+          <t>+5512981058518</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>+553499003093</t>
+          <t>+5511999001717</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>+555196007397</t>
+          <t>+556292038549</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>+5511982433008</t>
+          <t>+556191138143</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>+5511997716823</t>
+          <t>+557599264956</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>+5511983306587</t>
+          <t>+555189187936</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>+5511949196983</t>
-        </is>
-      </c>
-      <c r="B247" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>+5358479860</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="inlineStr"/>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>+555381183909</t>
+          <t>+5521985977255</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>2024-10-02</t>
+          <t>2024-10-03</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>+5511999884878</t>
+          <t>+553196084210</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
@@ -4685,12 +4685,12 @@
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>+5511964334834</t>
+          <t>+5521999549660</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
@@ -4702,12 +4702,12 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>+553888120360</t>
+          <t>+5519987126067</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
@@ -4719,12 +4719,12 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>+557788424762</t>
+          <t>+553499003093</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
@@ -4736,7 +4736,7 @@
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>+555183129329</t>
+          <t>+555196007397</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
@@ -4753,12 +4753,12 @@
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>+556295495495</t>
+          <t>+5511982433008</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>+5519997942490</t>
+          <t>+5511997716823</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
@@ -4787,12 +4787,12 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>+556392112000</t>
+          <t>+5511983306587</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
@@ -4804,7 +4804,7 @@
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>+5511934214733</t>
+          <t>+5511949196983</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
@@ -4821,12 +4821,12 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>+5511963397232</t>
+          <t>+555381183909</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
@@ -4838,12 +4838,12 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>+5521997867282</t>
+          <t>+5511999884878</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
@@ -4855,143 +4855,143 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>+5513981349514</t>
+          <t>+5511964334834</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>+5521983615266</t>
+          <t>+553888120360</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>+5511949390896</t>
+          <t>+557788424762</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>+5511975217391</t>
+          <t>+555183129329</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>+5519992629164</t>
+          <t>+556295495495</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>+5521971246982</t>
+          <t>+5519997942490</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="inlineStr">
         <is>
-          <t>+5511985014090</t>
+          <t>+556392112000</t>
         </is>
       </c>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>+5519981093171</t>
+          <t>+5511934214733</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="inlineStr">
         <is>
-          <t>+5511989789921</t>
+          <t>+5511963397232</t>
         </is>
       </c>
       <c r="B268" s="2" t="inlineStr">
@@ -5001,36 +5001,36 @@
       </c>
       <c r="C268" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>+5513996350011</t>
+          <t>+5521997867282</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>2024-10-01</t>
+          <t>2024-10-02</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>+5521975027492</t>
+          <t>+5513981349514</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
@@ -5042,12 +5042,12 @@
     <row r="271">
       <c r="A271" s="2" t="inlineStr">
         <is>
-          <t>+556181971614</t>
+          <t>+5521983615266</t>
         </is>
       </c>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr">
@@ -5059,7 +5059,7 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>+5511993273141</t>
+          <t>+5511949390896</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
@@ -5076,7 +5076,7 @@
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>+5511953448726</t>
+          <t>+5511975217391</t>
         </is>
       </c>
       <c r="B273" s="2" t="inlineStr">
@@ -5093,12 +5093,12 @@
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>+553199088868</t>
+          <t>+5519992629164</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
@@ -5110,12 +5110,12 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>+5519999718434</t>
+          <t>+5521971246982</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
@@ -5127,12 +5127,12 @@
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>+5521975624608</t>
+          <t>+5511985014090</t>
         </is>
       </c>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr">
@@ -5144,12 +5144,12 @@
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>+5511960663652</t>
+          <t>+5519981093171</t>
         </is>
       </c>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr">
@@ -5161,12 +5161,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>+5521972842152</t>
+          <t>+5511989789921</t>
         </is>
       </c>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr">
@@ -5178,12 +5178,12 @@
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>+555496197902</t>
+          <t>+5513996350011</t>
         </is>
       </c>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr">
@@ -5195,330 +5195,330 @@
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>+555399315055</t>
+          <t>+5521975027492</t>
         </is>
       </c>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>+553799036863</t>
+          <t>+556181971614</t>
         </is>
       </c>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>+553399199435</t>
+          <t>+5511993273141</t>
         </is>
       </c>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>+5519996234765</t>
+          <t>+5511953448726</t>
         </is>
       </c>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>+5521979492841</t>
+          <t>+553199088868</t>
         </is>
       </c>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>+5513992025466</t>
+          <t>+5519999718434</t>
         </is>
       </c>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr">
         <is>
-          <t>2024-09-29</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>+5515988176680</t>
+          <t>+5521975624608</t>
         </is>
       </c>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="inlineStr">
         <is>
-          <t>+5522981860508</t>
+          <t>+5511960663652</t>
         </is>
       </c>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>+556191488684</t>
+          <t>+5521972842152</t>
         </is>
       </c>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>+5521982661030</t>
+          <t>+555496197902</t>
         </is>
       </c>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-10-01</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>+5511964013309</t>
+          <t>+555399315055</t>
         </is>
       </c>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>+5517992674855</t>
+          <t>+553799036863</t>
         </is>
       </c>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>+554198484785</t>
+          <t>+553399199435</t>
         </is>
       </c>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>+5521959229253</t>
+          <t>+5519996234765</t>
         </is>
       </c>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>+5511984625277</t>
+          <t>+5521979492841</t>
         </is>
       </c>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="inlineStr">
         <is>
-          <t>+5512991103006</t>
+          <t>+5513992025466</t>
         </is>
       </c>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-09-29</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>+5512992376716</t>
+          <t>+5515988176680</t>
         </is>
       </c>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>+5511945720569</t>
+          <t>+5522981860508</t>
         </is>
       </c>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>+5521986594286</t>
+          <t>+556191488684</t>
         </is>
       </c>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-28</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>+5521991121897</t>
+          <t>+5521982661030</t>
         </is>
       </c>
       <c r="B299" s="2" t="inlineStr">
@@ -5528,14 +5528,14 @@
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>+5511994111683</t>
+          <t>+5511964013309</t>
         </is>
       </c>
       <c r="B300" s="2" t="inlineStr">
@@ -5545,65 +5545,65 @@
       </c>
       <c r="C300" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>+553199515468</t>
+          <t>+5517992674855</t>
         </is>
       </c>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>+5513988453610</t>
+          <t>+554198484785</t>
         </is>
       </c>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>+553187320810</t>
+          <t>+5521959229253</t>
         </is>
       </c>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5511984625277</t>
         </is>
       </c>
       <c r="B304" s="2" t="inlineStr">
@@ -5613,82 +5613,82 @@
       </c>
       <c r="C304" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>+5527981827205</t>
+          <t>+5512991103006</t>
         </is>
       </c>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-26</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>+5519995179346</t>
+          <t>+5512992376716</t>
         </is>
       </c>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>+553171730236</t>
+          <t>+5511945720569</t>
         </is>
       </c>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>+553384266885</t>
+          <t>+5521986594286</t>
         </is>
       </c>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>+5521994171810</t>
+          <t>+5521991121897</t>
         </is>
       </c>
       <c r="B309" s="2" t="inlineStr">
@@ -5698,14 +5698,14 @@
       </c>
       <c r="C309" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>+5511983914760</t>
+          <t>+5511994111683</t>
         </is>
       </c>
       <c r="B310" s="2" t="inlineStr">
@@ -5715,65 +5715,65 @@
       </c>
       <c r="C310" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>+5511976549024</t>
+          <t>+553199515468</t>
         </is>
       </c>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>+5521969755343</t>
+          <t>+5513988453610</t>
         </is>
       </c>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr">
         <is>
-          <t>2024-09-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>+5513988626531</t>
+          <t>+553187320810</t>
         </is>
       </c>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>+5511967085107</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B314" s="2" t="inlineStr">
@@ -5783,218 +5783,218 @@
       </c>
       <c r="C314" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>+5511977696904</t>
+          <t>+5527981827205</t>
         </is>
       </c>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr">
         <is>
-          <t>2024-09-20</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>+5511990152523</t>
+          <t>+5519995179346</t>
         </is>
       </c>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>+5511990011295</t>
+          <t>+553171730236</t>
         </is>
       </c>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>+5511948385232</t>
+          <t>+553384266885</t>
         </is>
       </c>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>+556199561353</t>
+          <t>+5521994171810</t>
         </is>
       </c>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5511983914760</t>
         </is>
       </c>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5511976549024</t>
         </is>
       </c>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>+5511952381413</t>
+          <t>+5521969755343</t>
         </is>
       </c>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-23</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>+5511977036228</t>
+          <t>+5513988626531</t>
         </is>
       </c>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>+5521997452192</t>
+          <t>+5511967085107</t>
         </is>
       </c>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>+5518981104081</t>
+          <t>+5511977696904</t>
         </is>
       </c>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-20</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>+5527995084971</t>
+          <t>+5511990152523</t>
         </is>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>+5511960883659</t>
+          <t>+5511990011295</t>
         </is>
       </c>
       <c r="B327" s="2" t="inlineStr">
@@ -6004,99 +6004,99 @@
       </c>
       <c r="C327" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>+5515997311227</t>
+          <t>+5511948385232</t>
         </is>
       </c>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-19</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>+5511991898733</t>
+          <t>+556199561353</t>
         </is>
       </c>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr">
         <is>
-          <t>2024-09-17</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>+555186932954</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>+556295505222</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>+5515996802393</t>
+          <t>+5511952381413</t>
         </is>
       </c>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>+5511953342142</t>
+          <t>+5511977036228</t>
         </is>
       </c>
       <c r="B333" s="2" t="inlineStr">
@@ -6106,65 +6106,65 @@
       </c>
       <c r="C333" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>+5519993458891</t>
+          <t>+5521997452192</t>
         </is>
       </c>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>+5511975239143</t>
+          <t>+5518981104081</t>
         </is>
       </c>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>+5511988728016</t>
+          <t>+5527995084971</t>
         </is>
       </c>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>+5511937521372</t>
+          <t>+5511960883659</t>
         </is>
       </c>
       <c r="B337" s="2" t="inlineStr">
@@ -6174,48 +6174,48 @@
       </c>
       <c r="C337" s="2" t="inlineStr">
         <is>
-          <t>2024-09-15</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>+5521971675879</t>
+          <t>+5515997311227</t>
         </is>
       </c>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>+5519999351093</t>
+          <t>+5511991898733</t>
         </is>
       </c>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-09-17</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+555186932954</t>
         </is>
       </c>
       <c r="B340" s="2" t="inlineStr">
@@ -6225,235 +6225,235 @@
       </c>
       <c r="C340" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>+553189770327</t>
+          <t>+556295505222</t>
         </is>
       </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C341" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>+5521973034869</t>
+          <t>+5515996802393</t>
         </is>
       </c>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C342" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="inlineStr">
         <is>
-          <t>+5522988681272</t>
+          <t>+5511953342142</t>
         </is>
       </c>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>+5511940799019</t>
+          <t>+5519993458891</t>
         </is>
       </c>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>+556295423845</t>
+          <t>+5511975239143</t>
         </is>
       </c>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>+553491564119</t>
+          <t>+5511988728016</t>
         </is>
       </c>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="inlineStr">
         <is>
-          <t>+556198857512</t>
+          <t>+5511937521372</t>
         </is>
       </c>
       <c r="B347" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C347" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-15</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>+553597695870</t>
+          <t>+5521971675879</t>
         </is>
       </c>
       <c r="B348" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C348" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="inlineStr">
         <is>
-          <t>+553898991517</t>
+          <t>+5519999351093</t>
         </is>
       </c>
       <c r="B349" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C349" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-14</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="inlineStr">
         <is>
-          <t>+5515998598533</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C350" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>+555185474443</t>
+          <t>+553189770327</t>
         </is>
       </c>
       <c r="B351" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C351" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>+555191089346</t>
+          <t>+5521973034869</t>
         </is>
       </c>
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C352" s="2" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5522988681272</t>
         </is>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="inlineStr">
         <is>
-          <t>+5511947769013</t>
+          <t>+5511940799019</t>
         </is>
       </c>
       <c r="B354" s="2" t="inlineStr">
@@ -6463,265 +6463,269 @@
       </c>
       <c r="C354" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="inlineStr">
         <is>
-          <t>+554497202222</t>
+          <t>+556295423845</t>
         </is>
       </c>
       <c r="B355" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C355" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+553491564119</t>
         </is>
       </c>
       <c r="B356" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C356" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="inlineStr">
         <is>
-          <t>+5511953499879</t>
+          <t>+556198857512</t>
         </is>
       </c>
       <c r="B357" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C357" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="inlineStr">
         <is>
-          <t>+5521997432262</t>
+          <t>+553597695870</t>
         </is>
       </c>
       <c r="B358" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C358" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="inlineStr">
         <is>
-          <t>+555192716884</t>
+          <t>+553898991517</t>
         </is>
       </c>
       <c r="B359" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C359" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5515998598533</t>
         </is>
       </c>
       <c r="B360" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C360" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="inlineStr">
         <is>
-          <t>+5511957562684</t>
+          <t>+555185474443</t>
         </is>
       </c>
       <c r="B361" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C361" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="inlineStr">
         <is>
-          <t>+5524999327754</t>
+          <t>+555191089346</t>
         </is>
       </c>
       <c r="B362" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C362" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-12</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="inlineStr">
         <is>
-          <t>+553182145545</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B363" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C363" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="inlineStr">
         <is>
-          <t>+558699687586</t>
+          <t>+5511947769013</t>
         </is>
       </c>
       <c r="B364" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C364" s="2" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="inlineStr">
         <is>
-          <t>+556185975181</t>
+          <t>+554497202222</t>
         </is>
       </c>
       <c r="B365" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C365" s="2" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="inlineStr">
         <is>
-          <t>+553291004823</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B366" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C366" s="2" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="inlineStr">
         <is>
-          <t>+34603138909</t>
-        </is>
-      </c>
-      <c r="B367" s="2" t="inlineStr"/>
+          <t>+5511953499879</t>
+        </is>
+      </c>
+      <c r="B367" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C367" s="2" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="inlineStr">
         <is>
-          <t>+5511981274889</t>
+          <t>+5521997432262</t>
         </is>
       </c>
       <c r="B368" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C368" s="2" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="inlineStr">
         <is>
-          <t>+5511967859426</t>
+          <t>+555192716884</t>
         </is>
       </c>
       <c r="B369" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C369" s="2" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="inlineStr">
         <is>
-          <t>+5521965197022</t>
+          <t>+5521985109311</t>
         </is>
       </c>
       <c r="B370" s="2" t="inlineStr">
@@ -6731,22 +6735,171 @@
       </c>
       <c r="C370" s="2" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2024-09-09</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="inlineStr">
         <is>
+          <t>+5511957562684</t>
+        </is>
+      </c>
+      <c r="B371" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C371" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="inlineStr">
+        <is>
+          <t>+5524999327754</t>
+        </is>
+      </c>
+      <c r="B372" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C372" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="inlineStr">
+        <is>
+          <t>+553182145545</t>
+        </is>
+      </c>
+      <c r="B373" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C373" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="inlineStr">
+        <is>
+          <t>+558699687586</t>
+        </is>
+      </c>
+      <c r="B374" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="C374" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="inlineStr">
+        <is>
+          <t>+556185975181</t>
+        </is>
+      </c>
+      <c r="B375" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C375" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="inlineStr">
+        <is>
+          <t>+553291004823</t>
+        </is>
+      </c>
+      <c r="B376" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C376" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="inlineStr">
+        <is>
+          <t>+34603138909</t>
+        </is>
+      </c>
+      <c r="B377" s="2" t="inlineStr"/>
+      <c r="C377" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="inlineStr">
+        <is>
+          <t>+5511981274889</t>
+        </is>
+      </c>
+      <c r="B378" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C378" s="2" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="inlineStr">
+        <is>
+          <t>+5511967859426</t>
+        </is>
+      </c>
+      <c r="B379" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C379" s="2" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="inlineStr">
+        <is>
           <t>+556298529715</t>
         </is>
       </c>
-      <c r="B371" s="2" t="inlineStr">
+      <c r="B380" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C371" s="2" t="inlineStr">
+      <c r="C380" s="2" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>

--- a/hermes.xlsx
+++ b/hermes.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C380"/>
+  <dimension ref="A1:C352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,92 +477,92 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5511973555904</t>
+          <t>+5512991664049</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-05</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511986325146</t>
+          <t>+5519978162911</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-05</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+553799442087</t>
+          <t>+5521964782407</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5516992760069</t>
+          <t>+553196076222</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5524974006835</t>
+          <t>+5511988324921</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511950286646</t>
+          <t>+5511966793827</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -572,31 +572,31 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511934765228</t>
+          <t>+5519996456088</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+553399157420</t>
+          <t>+553388225375</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -606,31 +606,31 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5521988594132</t>
+          <t>+554598622216</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5514981475077</t>
+          <t>+5514998182658</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -640,218 +640,218 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>+5511963155510</t>
+          <t>+5513996546920</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>+5514997883211</t>
+          <t>+553198383746</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>+5515988044745</t>
+          <t>+5521993451793</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>+5521985096467</t>
+          <t>+555198974502</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>+558591790588</t>
+          <t>+5519988121355</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>+5521970051457</t>
+          <t>+5511965148820</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>+5521966146169</t>
+          <t>+5514991349315</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>+5521970658763</t>
+          <t>+553484277477</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>+5516993430394</t>
+          <t>+555493551243</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>+553484202694</t>
+          <t>+5511961107899</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>+5511979673316</t>
+          <t>+553598705362</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>+553189442717</t>
+          <t>+5527998707099</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-04</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>+5511945736910</t>
+          <t>+5511952290829</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -861,14 +861,14 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>+553198877847</t>
+          <t>+553191702450</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -878,48 +878,48 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>+5521980127885</t>
+          <t>+555191868818</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>+558597991267</t>
+          <t>+5515991292129</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>+5521981977464</t>
+          <t>+5521981731319</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -929,99 +929,99 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>+559191764533</t>
+          <t>+553299540600</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>+558592116868</t>
+          <t>+5516988335841</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>+558288428449</t>
+          <t>+556282098778</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>+5511957390640</t>
+          <t>+556184648415</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>+553190633071</t>
+          <t>+554488109922</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>+5511934712805</t>
+          <t>+5511957170482</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1031,48 +1031,48 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>+5521976911685</t>
+          <t>+5513996282821</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>+553184787803</t>
+          <t>+5514991643123</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>+5521965847902</t>
+          <t>+5521988407337</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -1082,95 +1082,99 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>+5512981189051</t>
+          <t>+553185434277</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>+59891463058</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr"/>
+          <t>+5511982834321</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>+5522988120988</t>
+          <t>+553491411109</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>+5515997545613</t>
+          <t>+555197006987</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>+5521983721028</t>
+          <t>+553194265353</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>+5511932408926</t>
+          <t>+5511917879724</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -1180,31 +1184,31 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>+5511966568578</t>
+          <t>+554896596330</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>+5521970107283</t>
+          <t>+5521993508435</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -1214,133 +1218,133 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>+5517991357495</t>
+          <t>+5511981094076</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>+5511993516472</t>
+          <t>+5513991715212</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>+555195140432</t>
+          <t>+5517992532195</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-11-03</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>+5516993092794</t>
+          <t>+5521988326030</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>+558888756112</t>
+          <t>+555492199389</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>+5521976712324</t>
+          <t>+5511945507601</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>+553498757145</t>
+          <t>+5511988263420</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>+5511996844009</t>
+          <t>+5511979755135</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -1350,422 +1354,422 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>+5513997184863</t>
+          <t>+5511940194780</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>+5511963924242</t>
+          <t>+5521990757373</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>+5519971680538</t>
+          <t>+5511958000471</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>+553892209509</t>
+          <t>+5511946793978</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>+553892268133</t>
+          <t>+553388409115</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>+5511920075911</t>
+          <t>+5516988681626</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>+5512988650307</t>
+          <t>+555499192422</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>+5521965498026</t>
+          <t>+555384120704</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>+556293667982</t>
+          <t>+553190764760</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-02</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>+5519998638191</t>
+          <t>+5511951742095</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>+5521974870034</t>
+          <t>+5519994932805</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>+5511965461757</t>
+          <t>+5521981689151</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>+5514996538302</t>
+          <t>+553198234926</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>+5514981588270</t>
+          <t>+553888628769</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>+5521969509091</t>
+          <t>+555191598015</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>+553499652553</t>
+          <t>+5511973555904</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-11-01</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>+5511948117520</t>
+          <t>+553175561607</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>+5521980137916</t>
+          <t>+5516992760069</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>+5516992621004</t>
+          <t>+5524974006835</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>+553491559844</t>
+          <t>+5511950286646</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>+553198253411</t>
+          <t>+5511934765228</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>+5511944883418</t>
+          <t>+553399157420</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>+5518991568866</t>
+          <t>+5521988594132</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>+553196621053</t>
+          <t>+5514981475077</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>+5511983641384</t>
+          <t>+5511963155510</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -1775,167 +1779,167 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>+5519971058370</t>
+          <t>+5514997883211</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>+553888173806</t>
+          <t>+5515988044745</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>+5511953300048</t>
+          <t>+5521985096467</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>+5511963499586</t>
+          <t>+558591790588</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>+553192222396</t>
+          <t>+5521970051457</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>+557388375022</t>
+          <t>+5521966146169</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>+5515981337872</t>
+          <t>+5521970658763</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-31</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>+5521970591815</t>
+          <t>+5516993430394</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>+555584376758</t>
+          <t>+553484202694</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>+5511948871594</t>
+          <t>+5511979673316</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -1945,201 +1949,201 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>+5511989615168</t>
+          <t>+553189442717</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>+5521985600431</t>
+          <t>+5511945736910</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>+557798544944</t>
+          <t>+553198877847</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>+553196003962</t>
+          <t>+5521980127885</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>+553491573143</t>
+          <t>+558597991267</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>+5511992200087</t>
+          <t>+5521981977464</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>+5522997684436</t>
+          <t>+559191764533</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-30</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>+5511919488174</t>
+          <t>+558592116868</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10